--- a/RestAssuredTest/src/test/resources/data/testData.xlsx
+++ b/RestAssuredTest/src/test/resources/data/testData.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AKandan1/git/Team2_TestingTurtles/RestAssuredTest/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5897E6FA-49DC-7B47-9CF1-870BA3A47E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F444CE-DEEA-7A4D-AC79-521027F8842F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="32520" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="8080" windowWidth="32520" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="batch" sheetId="1" r:id="rId1"/>
+    <sheet name="hf" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>dataKey</t>
   </si>
@@ -46,9 +47,6 @@
     <t>batches</t>
   </si>
   <si>
-    <t>batchesss</t>
-  </si>
-  <si>
     <t>Get_ByBatchId_Valid</t>
   </si>
   <si>
@@ -70,26 +68,50 @@
     <t>batchId</t>
   </si>
   <si>
-    <t>batchIds</t>
-  </si>
-  <si>
     <t>batchName</t>
   </si>
   <si>
-    <t>batchNames</t>
-  </si>
-  <si>
     <t>program</t>
   </si>
   <si>
-    <t>programs</t>
+    <t>Post_ByBatchName_Invalid</t>
+  </si>
+  <si>
+    <t>BatchName</t>
+  </si>
+  <si>
+    <t>Sdet</t>
+  </si>
+  <si>
+    <t>Post_ByBatchName_Missingfield</t>
+  </si>
+  <si>
+    <t>TestingTurtles_SDET_54781</t>
+  </si>
+  <si>
+    <t>BatchStatus</t>
+  </si>
+  <si>
+    <t>NoOfClasses</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>BatchDescription</t>
+  </si>
+  <si>
+    <t>SDET</t>
+  </si>
+  <si>
+    <t>Post_Batch_Valid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +145,24 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0451A5"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF098658"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -146,7 +186,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -160,6 +200,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -437,104 +486,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="45.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.5" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.83203125" style="1"/>
+    <col min="1" max="1" width="34.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="18.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="45.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="45.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="57.5" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -542,4 +559,167 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2813D39-079A-C441-B8F0-FE4801F46DDC}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="7">
+        <v>11295</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/RestAssuredTest/src/test/resources/data/testData.xlsx
+++ b/RestAssuredTest/src/test/resources/data/testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AKandan1/git/Team2_TestingTurtles/RestAssuredTest/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F444CE-DEEA-7A4D-AC79-521027F8842F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C03A8FF-A13A-7E49-9686-6D67E9B8A64C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="8080" windowWidth="32520" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>dataKey</t>
   </si>
@@ -486,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -536,21 +536,33 @@
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D3" s="6">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -566,7 +578,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD12"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/RestAssuredTest/src/test/resources/data/testData.xlsx
+++ b/RestAssuredTest/src/test/resources/data/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AKandan1/git/Team2_TestingTurtles/RestAssuredTest/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C03A8FF-A13A-7E49-9686-6D67E9B8A64C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3989008-56D2-CA41-B871-6CF48029B183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="8080" windowWidth="32520" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="500" windowWidth="32520" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="batch" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="30">
   <si>
     <t>dataKey</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>Post_Batch_Valid</t>
+  </si>
+  <si>
+    <t>Post_Batch_Existing</t>
+  </si>
+  <si>
+    <t>Post_Batch_Missing_BatchStatus</t>
   </si>
 </sst>
 </file>
@@ -486,16 +492,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="37" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.1640625" style="1" customWidth="1"/>
     <col min="4" max="5" width="18.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" style="4" customWidth="1"/>
@@ -548,21 +554,143 @@
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D10" s="6">
         <v>1</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F10" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -578,7 +706,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="A2" sqref="A2:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/RestAssuredTest/src/test/resources/data/testData.xlsx
+++ b/RestAssuredTest/src/test/resources/data/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AKandan1/git/Team2_TestingTurtles/RestAssuredTest/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3989008-56D2-CA41-B871-6CF48029B183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F41DDA-B828-D54E-9834-F36E2E48B6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="500" windowWidth="32520" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="5040" windowWidth="32520" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="batch" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="34">
   <si>
     <t>dataKey</t>
   </si>
@@ -111,6 +111,18 @@
   </si>
   <si>
     <t>Post_Batch_Missing_BatchStatus</t>
+  </si>
+  <si>
+    <t>Post_Batch_Missing_BatchName</t>
+  </si>
+  <si>
+    <t>Post_Batch_Missing_NoOfClasses</t>
+  </si>
+  <si>
+    <t>Post_Batch_Missing_ProgramId</t>
+  </si>
+  <si>
+    <t>Put_Batch_Valid</t>
   </si>
 </sst>
 </file>
@@ -492,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -692,6 +704,66 @@
       </c>
       <c r="F12" s="4" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/RestAssuredTest/src/test/resources/data/testData.xlsx
+++ b/RestAssuredTest/src/test/resources/data/testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AKandan1/git/Team2_TestingTurtles/RestAssuredTest/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F41DDA-B828-D54E-9834-F36E2E48B6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A9775D-D93A-C04C-9160-8E3F62F87D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="5040" windowWidth="32520" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="41">
   <si>
     <t>dataKey</t>
   </si>
@@ -123,6 +123,27 @@
   </si>
   <si>
     <t>Put_Batch_Valid</t>
+  </si>
+  <si>
+    <t>Put_Batch_Missing_BatchStatus</t>
+  </si>
+  <si>
+    <t>Put_Batch_Missing_BatchName</t>
+  </si>
+  <si>
+    <t>Put_Batch_Missing_NoOfClasses</t>
+  </si>
+  <si>
+    <t>Put_Batch_Missing_ProgramId</t>
+  </si>
+  <si>
+    <t>Put_Batch_Invalid</t>
+  </si>
+  <si>
+    <t>Delete_Batch_Valid</t>
+  </si>
+  <si>
+    <t>Delete_Batch_Invalid</t>
   </si>
 </sst>
 </file>
@@ -504,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -764,6 +785,138 @@
     <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>33</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="6">
+        <v>1</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="6">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/RestAssuredTest/src/test/resources/data/testData.xlsx
+++ b/RestAssuredTest/src/test/resources/data/testData.xlsx
@@ -9,13 +9,14 @@
     <sheet name="batch" sheetId="2" r:id="rId5"/>
     <sheet name="program" sheetId="3" r:id="rId6"/>
     <sheet name="user" sheetId="4" r:id="rId7"/>
-    <sheet name="hf" sheetId="5" r:id="rId8"/>
+    <sheet name="assignment" sheetId="5" r:id="rId8"/>
+    <sheet name="hf" sheetId="6" r:id="rId9"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -29,10 +30,80 @@
     <t>Excel Worksheet Name</t>
   </si>
   <si>
+    <t>Export Summary</t>
+  </si>
+  <si>
+    <t>Table 1</t>
+  </si>
+  <si>
     <t>batch</t>
   </si>
   <si>
-    <t>Table 1</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>batch</t>
+    </r>
+  </si>
+  <si>
+    <t>program</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>program</t>
+    </r>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>user</t>
+    </r>
+  </si>
+  <si>
+    <t>assignment</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>assignment</t>
+    </r>
+  </si>
+  <si>
+    <t>hf</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>hf</t>
+    </r>
   </si>
   <si>
     <t>dataKey</t>
@@ -92,9 +163,6 @@
     <t>Get_ByProgramId_Valid</t>
   </si>
   <si>
-    <t>program</t>
-  </si>
-  <si>
     <t>Get_ByProgramId_Invalid</t>
   </si>
   <si>
@@ -149,7 +217,7 @@
     <t>Delete_Batch_Invalid</t>
   </si>
   <si>
-    <t>Assignment_Batch</t>
+    <t>Post_Batch_Assignment</t>
   </si>
   <si>
     <t>Jul23-TestingTurtles-SDET-SDET01-</t>
@@ -167,15 +235,12 @@
     <t>programDescription</t>
   </si>
   <si>
-    <t>Assignment_Program</t>
+    <t>Post_Program_Assignment</t>
   </si>
   <si>
     <t>Jul23-TestingTurtles-SDET-</t>
   </si>
   <si>
-    <t>user</t>
-  </si>
-  <si>
     <t>userFirstName</t>
   </si>
   <si>
@@ -212,7 +277,7 @@
     <t>userVisaStatus</t>
   </si>
   <si>
-    <t>Assignment_User</t>
+    <t>Post_User_Assignment</t>
   </si>
   <si>
     <t>TestingTurtles_</t>
@@ -230,6 +295,17 @@
     <t>BE</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>www.linkedin.com/Test1234</t>
+    </r>
+  </si>
+  <si>
     <t>USA</t>
   </si>
   <si>
@@ -242,7 +318,61 @@
     <t>H4</t>
   </si>
   <si>
-    <t>hf</t>
+    <t>assignmentName</t>
+  </si>
+  <si>
+    <t>assignmentDescription</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>pathAttachment1</t>
+  </si>
+  <si>
+    <t>pathAttachment2</t>
+  </si>
+  <si>
+    <t>pathAttachment3</t>
+  </si>
+  <si>
+    <t>pathAttachment4</t>
+  </si>
+  <si>
+    <t>pathAttachment5</t>
+  </si>
+  <si>
+    <t>Post_Assignment_Valid</t>
+  </si>
+  <si>
+    <t>Jul23-TestingTurtles-SDET-SQL-</t>
+  </si>
+  <si>
+    <t>SDET SQL Assignment</t>
+  </si>
+  <si>
+    <t>Testing for Assignment</t>
+  </si>
+  <si>
+    <t>pathfile1.json</t>
+  </si>
+  <si>
+    <t>pathfile2.json</t>
+  </si>
+  <si>
+    <t>pathfile3.json</t>
+  </si>
+  <si>
+    <t>pathfile4.json</t>
+  </si>
+  <si>
+    <t>pathfile5.json</t>
+  </si>
+  <si>
+    <t>Post_Assignment_Existing</t>
+  </si>
+  <si>
+    <t>&lt;set in code&gt;</t>
   </si>
   <si>
     <t>Post_ByBatchName_Invalid</t>
@@ -261,7 +391,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -300,21 +430,27 @@
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="14"/>
+      <color indexed="16"/>
       <name val="Menlo Regular"/>
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="15"/>
+      <color indexed="17"/>
+      <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="12"/>
+      <color indexed="11"/>
       <name val="Menlo Regular"/>
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="16"/>
+      <color indexed="18"/>
       <name val="Menlo Regular"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,12 +471,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="12"/>
+        <fgColor indexed="13"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="14"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -350,17 +498,128 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -369,7 +628,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -391,55 +650,142 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -462,8 +808,10 @@
       <rgbColor rgb="015e88b1"/>
       <rgbColor rgb="01eef3f4"/>
       <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ff5e88b1"/>
+      <rgbColor rgb="ffeef3f4"/>
       <rgbColor rgb="ff2a00ff"/>
       <rgbColor rgb="ff0451a5"/>
       <rgbColor rgb="ff098658"/>
@@ -665,17 +1013,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -703,10 +1051,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -954,12 +1302,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1246,7 +1594,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1274,10 +1622,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1528,107 +1876,228 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="1" max="1" width="2" style="6" customWidth="1"/>
     <col min="2" max="4" width="30.5547" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="30.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="10" style="6" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" ht="13.55" customHeight="1">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" ht="13.55" customHeight="1">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+    </row>
     <row r="3" ht="50" customHeight="1">
-      <c r="B3" t="s" s="1">
+      <c r="A3" s="10"/>
+      <c r="B3" t="s" s="13">
         <v>0</v>
       </c>
-      <c r="C3"/>
-      <c r="D3"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" ht="13.55" customHeight="1">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" ht="13.55" customHeight="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7">
-      <c r="B7" t="s" s="2">
+      <c r="A7" s="10"/>
+      <c r="B7" t="s" s="14">
         <v>1</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="C7" t="s" s="14">
         <v>2</v>
       </c>
-      <c r="D7" t="s" s="2">
+      <c r="D7" t="s" s="14">
         <v>3</v>
       </c>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9">
-      <c r="B9" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="10"/>
+      <c r="B9" t="s" s="15">
+        <v>6</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10">
-      <c r="B10" s="4"/>
-      <c r="C10" t="s" s="4">
+      <c r="A10" s="10"/>
+      <c r="B10" s="17"/>
+      <c r="C10" t="s" s="18">
         <v>5</v>
       </c>
-      <c r="D10" t="s" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="D10" t="s" s="19">
+        <v>7</v>
+      </c>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" ht="13" customHeight="1">
+      <c r="A11" s="10"/>
       <c r="B11" t="s" s="3">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-    </row>
-    <row r="12">
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" ht="13" customHeight="1">
+      <c r="A12" s="10"/>
       <c r="B12" s="4"/>
       <c r="C12" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D12" t="s" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>6</v>
+      </c>
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" ht="13" customHeight="1">
+      <c r="A13" s="10"/>
       <c r="B13" t="s" s="3">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-    </row>
-    <row r="14">
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" ht="13" customHeight="1">
+      <c r="A14" s="10"/>
       <c r="B14" s="4"/>
       <c r="C14" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D14" t="s" s="5">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>8</v>
+      </c>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" ht="13" customHeight="1">
+      <c r="A15" s="10"/>
       <c r="B15" t="s" s="3">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-    </row>
-    <row r="16">
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" ht="13" customHeight="1">
+      <c r="A16" s="10"/>
       <c r="B16" s="4"/>
       <c r="C16" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D16" t="s" s="5">
-        <v>75</v>
+        <v>10</v>
+      </c>
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" ht="13" customHeight="1">
+      <c r="A17" s="10"/>
+      <c r="B17" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" ht="13" customHeight="1">
+      <c r="A18" s="20"/>
+      <c r="B18" s="4"/>
+      <c r="C18" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="E18" s="24"/>
+    </row>
+    <row r="19">
+      <c r="B19" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="4"/>
+      <c r="C20" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s" s="5">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="B3:D3"/>
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <hyperlinks>
+    <hyperlink ref="D10" location="'Export Summary'!R1C1" tooltip="" display="Export Summary"/>
     <hyperlink ref="D10" location="'batch'!R1C1" tooltip="" display="batch"/>
     <hyperlink ref="D12" location="'program'!R1C1" tooltip="" display="program"/>
     <hyperlink ref="D14" location="'user'!R1C1" tooltip="" display="user"/>
-    <hyperlink ref="D16" location="'hf'!R1C1" tooltip="" display="hf"/>
+    <hyperlink ref="D16" location="'assignment'!R1C1" tooltip="" display="assignment"/>
+    <hyperlink ref="D18" location="'hf'!R1C1" tooltip="" display="hf"/>
+    <hyperlink ref="D12" location="'batch'!R1C1" tooltip="" display="batch"/>
+    <hyperlink ref="D14" location="'program'!R1C1" tooltip="" display="program"/>
+    <hyperlink ref="D16" location="'user'!R1C1" tooltip="" display="user"/>
+    <hyperlink ref="D18" location="'assignment'!R1C1" tooltip="" display="assignment"/>
+    <hyperlink ref="D20" location="'hf'!R1C1" tooltip="" display="hf"/>
   </hyperlinks>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -1640,481 +2109,481 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="37" style="6" customWidth="1"/>
-    <col min="2" max="2" width="36" style="6" customWidth="1"/>
-    <col min="3" max="3" width="18.1719" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18.3516" style="6" customWidth="1"/>
-    <col min="5" max="5" width="37.1719" style="6" customWidth="1"/>
-    <col min="6" max="6" width="15.6719" style="6" customWidth="1"/>
-    <col min="7" max="7" width="45.1719" style="6" customWidth="1"/>
-    <col min="8" max="8" width="45.8516" style="6" customWidth="1"/>
-    <col min="9" max="9" width="57.5" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="9.85156" style="6" customWidth="1"/>
+    <col min="1" max="1" width="37" style="25" customWidth="1"/>
+    <col min="2" max="2" width="36" style="25" customWidth="1"/>
+    <col min="3" max="3" width="18.1719" style="25" customWidth="1"/>
+    <col min="4" max="4" width="18.3516" style="25" customWidth="1"/>
+    <col min="5" max="5" width="37.1719" style="25" customWidth="1"/>
+    <col min="6" max="6" width="15.6719" style="25" customWidth="1"/>
+    <col min="7" max="7" width="45.1719" style="25" customWidth="1"/>
+    <col min="8" max="8" width="45.8516" style="25" customWidth="1"/>
+    <col min="9" max="9" width="57.5" style="25" customWidth="1"/>
+    <col min="10" max="16384" width="9.85156" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s" s="7">
+      <c r="A1" t="s" s="26">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s" s="26">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s" s="26">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s" s="26">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s" s="26">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s" s="27">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s" s="26">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s" s="26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" t="s" s="28">
+        <v>25</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" t="s" s="27">
+        <v>26</v>
+      </c>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="s" s="28">
+        <v>27</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" t="s" s="27">
+        <v>26</v>
+      </c>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="s" s="28">
+        <v>28</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" t="s" s="27">
+        <v>29</v>
+      </c>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="s" s="28">
+        <v>30</v>
+      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" t="s" s="27">
+        <v>29</v>
+      </c>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="s" s="28">
+        <v>31</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" t="s" s="27">
+        <v>32</v>
+      </c>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="s" s="28">
+        <v>33</v>
+      </c>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" t="s" s="27">
+        <v>32</v>
+      </c>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="s" s="28">
+        <v>34</v>
+      </c>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" t="s" s="27">
         <v>8</v>
       </c>
-      <c r="D1" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s" s="7">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s" s="8">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="I1" t="s" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="9">
-        <v>18</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="9">
-        <v>20</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="9">
-        <v>21</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" t="s" s="8">
-        <v>22</v>
-      </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="s" s="9">
-        <v>23</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" t="s" s="8">
-        <v>22</v>
-      </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="s" s="9">
-        <v>24</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="s" s="9">
+      <c r="A9" t="s" s="28">
+        <v>35</v>
+      </c>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" t="s" s="27">
+        <v>8</v>
+      </c>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="s" s="28">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s" s="31">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s" s="32">
+        <v>38</v>
+      </c>
+      <c r="D10" s="33">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s" s="32">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s" s="27">
         <v>26</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s" s="12">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s" s="13">
-        <v>29</v>
-      </c>
-      <c r="D10" s="14">
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="s" s="28">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s" s="31">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s" s="32">
+        <v>38</v>
+      </c>
+      <c r="D11" s="33">
         <v>1</v>
       </c>
-      <c r="E10" t="s" s="13">
-        <v>30</v>
-      </c>
-      <c r="F10" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="s" s="9">
-        <v>31</v>
-      </c>
-      <c r="B11" t="s" s="12">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s" s="13">
-        <v>29</v>
-      </c>
-      <c r="D11" s="14">
+      <c r="E11" t="s" s="32">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s" s="27">
+        <v>26</v>
+      </c>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="s" s="28">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s" s="31">
+        <v>37</v>
+      </c>
+      <c r="C12" s="34"/>
+      <c r="D12" s="33">
         <v>1</v>
       </c>
-      <c r="E11" t="s" s="13">
-        <v>30</v>
-      </c>
-      <c r="F11" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="s" s="9">
-        <v>32</v>
-      </c>
-      <c r="B12" t="s" s="12">
-        <v>28</v>
-      </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="14">
+      <c r="E12" t="s" s="32">
+        <v>39</v>
+      </c>
+      <c r="F12" t="s" s="27">
+        <v>26</v>
+      </c>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="s" s="28">
+        <v>42</v>
+      </c>
+      <c r="B13" s="30"/>
+      <c r="C13" t="s" s="32">
+        <v>38</v>
+      </c>
+      <c r="D13" s="33">
         <v>1</v>
       </c>
-      <c r="E12" t="s" s="13">
-        <v>30</v>
-      </c>
-      <c r="F12" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="s" s="9">
-        <v>33</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" t="s" s="13">
-        <v>29</v>
-      </c>
-      <c r="D13" s="14">
+      <c r="E13" t="s" s="32">
+        <v>39</v>
+      </c>
+      <c r="F13" t="s" s="27">
+        <v>26</v>
+      </c>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="s" s="28">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s" s="31">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s" s="32">
+        <v>38</v>
+      </c>
+      <c r="D14" s="34"/>
+      <c r="E14" t="s" s="32">
+        <v>39</v>
+      </c>
+      <c r="F14" t="s" s="27">
+        <v>26</v>
+      </c>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="s" s="28">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s" s="31">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s" s="32">
+        <v>38</v>
+      </c>
+      <c r="D15" s="33">
         <v>1</v>
       </c>
-      <c r="E13" t="s" s="13">
-        <v>30</v>
-      </c>
-      <c r="F13" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="B14" t="s" s="12">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s" s="13">
-        <v>29</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" t="s" s="13">
-        <v>30</v>
-      </c>
-      <c r="F14" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="s" s="9">
-        <v>35</v>
-      </c>
-      <c r="B15" t="s" s="12">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s" s="13">
-        <v>29</v>
-      </c>
-      <c r="D15" s="14">
+      <c r="E15" t="s" s="32">
+        <v>39</v>
+      </c>
+      <c r="F15" t="s" s="27">
+        <v>26</v>
+      </c>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="s" s="28">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s" s="31">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s" s="32">
+        <v>38</v>
+      </c>
+      <c r="D16" s="33">
         <v>1</v>
       </c>
-      <c r="E15" t="s" s="13">
-        <v>30</v>
-      </c>
-      <c r="F15" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="s" s="9">
-        <v>36</v>
-      </c>
-      <c r="B16" t="s" s="12">
-        <v>28</v>
-      </c>
-      <c r="C16" t="s" s="13">
-        <v>29</v>
-      </c>
-      <c r="D16" s="14">
+      <c r="E16" t="s" s="32">
+        <v>39</v>
+      </c>
+      <c r="F16" t="s" s="27">
+        <v>26</v>
+      </c>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="s" s="28">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s" s="31">
+        <v>37</v>
+      </c>
+      <c r="C17" s="34"/>
+      <c r="D17" s="33">
         <v>1</v>
       </c>
-      <c r="E16" t="s" s="13">
-        <v>30</v>
-      </c>
-      <c r="F16" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="s" s="9">
+      <c r="E17" t="s" s="32">
+        <v>39</v>
+      </c>
+      <c r="F17" t="s" s="27">
+        <v>26</v>
+      </c>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="s" s="28">
+        <v>47</v>
+      </c>
+      <c r="B18" s="30"/>
+      <c r="C18" t="s" s="32">
+        <v>38</v>
+      </c>
+      <c r="D18" s="33">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s" s="32">
+        <v>39</v>
+      </c>
+      <c r="F18" t="s" s="27">
+        <v>26</v>
+      </c>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="s" s="28">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s" s="31">
         <v>37</v>
       </c>
-      <c r="B17" t="s" s="12">
-        <v>28</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="14">
+      <c r="C19" t="s" s="32">
+        <v>38</v>
+      </c>
+      <c r="D19" s="34"/>
+      <c r="E19" t="s" s="32">
+        <v>39</v>
+      </c>
+      <c r="F19" t="s" s="27">
+        <v>26</v>
+      </c>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="s" s="28">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s" s="31">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s" s="32">
+        <v>38</v>
+      </c>
+      <c r="D20" s="33">
         <v>1</v>
       </c>
-      <c r="E17" t="s" s="13">
-        <v>30</v>
-      </c>
-      <c r="F17" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="s" s="9">
+      <c r="E20" t="s" s="32">
+        <v>39</v>
+      </c>
+      <c r="F20" t="s" s="27">
+        <v>26</v>
+      </c>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+    </row>
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="s" s="28">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s" s="31">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s" s="32">
         <v>38</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" t="s" s="13">
-        <v>29</v>
-      </c>
-      <c r="D18" s="14">
+      <c r="D21" s="33">
         <v>1</v>
       </c>
-      <c r="E18" t="s" s="13">
-        <v>30</v>
-      </c>
-      <c r="F18" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="s" s="9">
+      <c r="E21" t="s" s="32">
         <v>39</v>
       </c>
-      <c r="B19" t="s" s="12">
-        <v>28</v>
-      </c>
-      <c r="C19" t="s" s="13">
-        <v>29</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" t="s" s="13">
-        <v>30</v>
-      </c>
-      <c r="F19" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="s" s="9">
-        <v>40</v>
-      </c>
-      <c r="B20" t="s" s="12">
-        <v>28</v>
-      </c>
-      <c r="C20" t="s" s="13">
-        <v>29</v>
-      </c>
-      <c r="D20" s="14">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s" s="13">
-        <v>30</v>
-      </c>
-      <c r="F20" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="s" s="9">
-        <v>41</v>
-      </c>
-      <c r="B21" t="s" s="12">
-        <v>28</v>
-      </c>
-      <c r="C21" t="s" s="13">
-        <v>29</v>
-      </c>
-      <c r="D21" s="14">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s" s="13">
-        <v>30</v>
-      </c>
-      <c r="F21" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
+      <c r="F21" t="s" s="27">
+        <v>26</v>
+      </c>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
     </row>
     <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="s" s="9">
-        <v>42</v>
-      </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
+      <c r="A22" t="s" s="28">
+        <v>51</v>
+      </c>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" t="s" s="27">
+        <v>26</v>
+      </c>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
     </row>
     <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="s" s="9">
-        <v>43</v>
-      </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
+      <c r="A23" t="s" s="28">
+        <v>52</v>
+      </c>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" t="s" s="27">
+        <v>26</v>
+      </c>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
     </row>
     <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="s" s="9">
-        <v>44</v>
-      </c>
-      <c r="B24" t="s" s="9">
-        <v>45</v>
-      </c>
-      <c r="C24" t="s" s="9">
-        <v>29</v>
-      </c>
-      <c r="D24" s="16">
+      <c r="A24" t="s" s="28">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s" s="28">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s" s="28">
+        <v>38</v>
+      </c>
+      <c r="D24" s="35">
         <v>2</v>
       </c>
-      <c r="E24" t="s" s="9">
-        <v>46</v>
-      </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
+      <c r="E24" t="s" s="28">
+        <v>55</v>
+      </c>
+      <c r="F24" s="36"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
@@ -2127,46 +2596,105 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="37" style="18" customWidth="1"/>
-    <col min="2" max="2" width="36" style="18" customWidth="1"/>
-    <col min="3" max="3" width="18.1719" style="18" customWidth="1"/>
-    <col min="4" max="4" width="37.1719" style="18" customWidth="1"/>
-    <col min="5" max="16384" width="9.85156" style="18" customWidth="1"/>
+    <col min="1" max="1" width="37" style="37" customWidth="1"/>
+    <col min="2" max="2" width="36" style="37" customWidth="1"/>
+    <col min="3" max="3" width="18.1719" style="37" customWidth="1"/>
+    <col min="4" max="4" width="37.1719" style="37" customWidth="1"/>
+    <col min="5" max="5" width="9.85156" style="37" customWidth="1"/>
+    <col min="6" max="16384" width="9.85156" style="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s" s="7">
-        <v>47</v>
-      </c>
-      <c r="C1" t="s" s="7">
-        <v>48</v>
-      </c>
-      <c r="D1" t="s" s="7">
-        <v>49</v>
-      </c>
+      <c r="A1" t="s" s="26">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s" s="26">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s" s="26">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s" s="26">
+        <v>58</v>
+      </c>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="9">
-        <v>50</v>
-      </c>
-      <c r="B2" t="s" s="9">
-        <v>51</v>
-      </c>
-      <c r="C2" t="s" s="9">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s" s="9">
-        <v>46</v>
-      </c>
+      <c r="A2" t="s" s="28">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s" s="28">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s" s="28">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s" s="28">
+        <v>55</v>
+      </c>
+      <c r="E2" s="39"/>
+    </row>
+    <row r="3" ht="13.55" customHeight="1">
+      <c r="A3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42"/>
+    </row>
+    <row r="4" ht="13.55" customHeight="1">
+      <c r="A4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="42"/>
+    </row>
+    <row r="5" ht="13.55" customHeight="1">
+      <c r="A5" s="43"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="42"/>
+    </row>
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" s="43"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="42"/>
+    </row>
+    <row r="7" ht="13.55" customHeight="1">
+      <c r="A7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="42"/>
+    </row>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="43"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="42"/>
+    </row>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="43"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="42"/>
+    </row>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" s="45"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
@@ -2179,100 +2707,225 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="37" style="19" customWidth="1"/>
-    <col min="2" max="2" width="36" style="19" customWidth="1"/>
-    <col min="3" max="3" width="18.1719" style="19" customWidth="1"/>
-    <col min="4" max="13" width="37.1719" style="19" customWidth="1"/>
-    <col min="14" max="16384" width="9.85156" style="19" customWidth="1"/>
+    <col min="1" max="1" width="37" style="48" customWidth="1"/>
+    <col min="2" max="2" width="36" style="48" customWidth="1"/>
+    <col min="3" max="3" width="18.1719" style="48" customWidth="1"/>
+    <col min="4" max="13" width="37.1719" style="48" customWidth="1"/>
+    <col min="14" max="16384" width="9.85156" style="48" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="7">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s" s="7">
-        <v>53</v>
-      </c>
-      <c r="C1" t="s" s="7">
-        <v>54</v>
-      </c>
-      <c r="D1" t="s" s="7">
+      <c r="A1" t="s" s="26">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s" s="26">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s" s="26">
+        <v>62</v>
+      </c>
+      <c r="D1" t="s" s="26">
+        <v>63</v>
+      </c>
+      <c r="E1" t="s" s="26">
+        <v>64</v>
+      </c>
+      <c r="F1" t="s" s="26">
+        <v>65</v>
+      </c>
+      <c r="G1" t="s" s="26">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s" s="26">
+        <v>67</v>
+      </c>
+      <c r="I1" t="s" s="26">
+        <v>68</v>
+      </c>
+      <c r="J1" t="s" s="26">
+        <v>69</v>
+      </c>
+      <c r="K1" t="s" s="26">
+        <v>70</v>
+      </c>
+      <c r="L1" t="s" s="26">
+        <v>71</v>
+      </c>
+      <c r="M1" t="s" s="26">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" t="s" s="28">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s" s="28">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s" s="28">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s" s="28">
+        <v>76</v>
+      </c>
+      <c r="E2" t="s" s="28">
         <v>55</v>
       </c>
-      <c r="E1" t="s" s="7">
-        <v>56</v>
-      </c>
-      <c r="F1" t="s" s="7">
-        <v>57</v>
-      </c>
-      <c r="G1" t="s" s="7">
-        <v>58</v>
-      </c>
-      <c r="H1" t="s" s="7">
-        <v>59</v>
-      </c>
-      <c r="I1" t="s" s="7">
-        <v>60</v>
-      </c>
-      <c r="J1" t="s" s="7">
-        <v>61</v>
-      </c>
-      <c r="K1" t="s" s="7">
-        <v>62</v>
-      </c>
-      <c r="L1" t="s" s="7">
-        <v>63</v>
-      </c>
-      <c r="M1" t="s" s="7">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="9">
-        <v>65</v>
-      </c>
-      <c r="B2" t="s" s="9">
-        <v>66</v>
-      </c>
-      <c r="C2" t="s" s="9">
-        <v>67</v>
-      </c>
-      <c r="D2" t="s" s="9">
-        <v>68</v>
-      </c>
-      <c r="E2" t="s" s="9">
-        <v>46</v>
-      </c>
-      <c r="F2" t="s" s="9">
-        <v>69</v>
-      </c>
-      <c r="G2" t="s" s="9">
-        <v>70</v>
-      </c>
-      <c r="H2" s="10"/>
-      <c r="I2" t="s" s="9">
-        <v>71</v>
-      </c>
-      <c r="J2" t="s" s="9">
-        <v>72</v>
-      </c>
-      <c r="K2" t="s" s="9">
-        <v>29</v>
-      </c>
-      <c r="L2" t="s" s="9">
-        <v>73</v>
-      </c>
-      <c r="M2" t="s" s="9">
-        <v>74</v>
-      </c>
+      <c r="F2" t="s" s="28">
+        <v>77</v>
+      </c>
+      <c r="G2" t="s" s="28">
+        <v>78</v>
+      </c>
+      <c r="H2" t="s" s="28">
+        <v>79</v>
+      </c>
+      <c r="I2" t="s" s="28">
+        <v>80</v>
+      </c>
+      <c r="J2" t="s" s="28">
+        <v>81</v>
+      </c>
+      <c r="K2" t="s" s="28">
+        <v>38</v>
+      </c>
+      <c r="L2" t="s" s="28">
+        <v>82</v>
+      </c>
+      <c r="M2" t="s" s="28">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" ht="13.55" customHeight="1">
+      <c r="A3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="49"/>
+    </row>
+    <row r="4" ht="13.55" customHeight="1">
+      <c r="A4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="42"/>
+    </row>
+    <row r="5" ht="13.55" customHeight="1">
+      <c r="A5" s="43"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="42"/>
+    </row>
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" s="43"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="42"/>
+    </row>
+    <row r="7" ht="13.55" customHeight="1">
+      <c r="A7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="42"/>
+    </row>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="43"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="42"/>
+    </row>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="43"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="42"/>
+    </row>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" s="45"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="47"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" location="" tooltip="" display="www.linkedin.com/Test1234"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
@@ -2283,174 +2936,374 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="30" style="50" customWidth="1"/>
+    <col min="2" max="2" width="38.5" style="50" customWidth="1"/>
+    <col min="3" max="3" width="24" style="50" customWidth="1"/>
+    <col min="4" max="4" width="27.5" style="50" customWidth="1"/>
+    <col min="5" max="9" width="18" style="50" customWidth="1"/>
+    <col min="10" max="16384" width="9.85156" style="50" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16" customHeight="1">
+      <c r="A1" t="s" s="26">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s" s="26">
+        <v>84</v>
+      </c>
+      <c r="C1" t="s" s="26">
+        <v>85</v>
+      </c>
+      <c r="D1" t="s" s="26">
+        <v>86</v>
+      </c>
+      <c r="E1" t="s" s="26">
+        <v>87</v>
+      </c>
+      <c r="F1" t="s" s="26">
+        <v>88</v>
+      </c>
+      <c r="G1" t="s" s="26">
+        <v>89</v>
+      </c>
+      <c r="H1" t="s" s="26">
+        <v>90</v>
+      </c>
+      <c r="I1" t="s" s="26">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" t="s" s="28">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s" s="28">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s" s="28">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s" s="28">
+        <v>95</v>
+      </c>
+      <c r="E2" t="s" s="28">
+        <v>96</v>
+      </c>
+      <c r="F2" t="s" s="28">
+        <v>97</v>
+      </c>
+      <c r="G2" t="s" s="28">
+        <v>98</v>
+      </c>
+      <c r="H2" t="s" s="28">
+        <v>99</v>
+      </c>
+      <c r="I2" t="s" s="28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="s" s="28">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s" s="28">
+        <v>102</v>
+      </c>
+      <c r="C3" t="s" s="28">
+        <v>94</v>
+      </c>
+      <c r="D3" t="s" s="28">
+        <v>95</v>
+      </c>
+      <c r="E3" t="s" s="28">
+        <v>96</v>
+      </c>
+      <c r="F3" t="s" s="28">
+        <v>97</v>
+      </c>
+      <c r="G3" t="s" s="28">
+        <v>98</v>
+      </c>
+      <c r="H3" t="s" s="28">
+        <v>99</v>
+      </c>
+      <c r="I3" t="s" s="28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" ht="13.55" customHeight="1">
+      <c r="A4" s="40"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="49"/>
+    </row>
+    <row r="5" ht="13.55" customHeight="1">
+      <c r="A5" s="43"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="42"/>
+    </row>
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" s="43"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" ht="13.55" customHeight="1">
+      <c r="A7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="42"/>
+    </row>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="43"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="42"/>
+    </row>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="43"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="42"/>
+    </row>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" s="43"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="42"/>
+    </row>
+    <row r="11" ht="13.55" customHeight="1">
+      <c r="A11" s="45"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="47"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="35.6719" style="20" customWidth="1"/>
-    <col min="2" max="2" width="30.8516" style="20" customWidth="1"/>
-    <col min="3" max="7" width="10.8516" style="20" customWidth="1"/>
-    <col min="8" max="16384" width="10.8516" style="20" customWidth="1"/>
+    <col min="1" max="1" width="35.6719" style="51" customWidth="1"/>
+    <col min="2" max="2" width="30.8516" style="51" customWidth="1"/>
+    <col min="3" max="7" width="10.8516" style="51" customWidth="1"/>
+    <col min="8" max="16384" width="10.8516" style="51" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="9">
-        <v>15</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" t="s" s="9">
-        <v>16</v>
+      <c r="A1" t="s" s="28">
+        <v>25</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" t="s" s="28">
+        <v>26</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1">
-      <c r="A2" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" t="s" s="9">
-        <v>16</v>
+      <c r="A2" t="s" s="28">
+        <v>27</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" t="s" s="28">
+        <v>26</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="A3" t="s" s="9">
-        <v>18</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" t="s" s="9">
-        <v>19</v>
+      <c r="A3" t="s" s="28">
+        <v>28</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" t="s" s="28">
+        <v>29</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="9">
-        <v>20</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" t="s" s="9">
-        <v>19</v>
+      <c r="A4" t="s" s="28">
+        <v>30</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" t="s" s="28">
+        <v>29</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="9">
-        <v>21</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" t="s" s="9">
-        <v>22</v>
+      <c r="A5" t="s" s="28">
+        <v>31</v>
+      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" t="s" s="28">
+        <v>32</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="9">
-        <v>23</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" t="s" s="9">
-        <v>22</v>
+      <c r="A6" t="s" s="28">
+        <v>33</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" t="s" s="28">
+        <v>32</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="s" s="9">
-        <v>24</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" t="s" s="9">
-        <v>25</v>
+      <c r="A7" t="s" s="28">
+        <v>34</v>
+      </c>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" t="s" s="28">
+        <v>8</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="s" s="9">
+      <c r="A8" t="s" s="28">
+        <v>35</v>
+      </c>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" t="s" s="28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+    </row>
+    <row r="10" ht="16" customHeight="1">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="29"/>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="s" s="28">
+        <v>103</v>
+      </c>
+      <c r="B11" t="s" s="31">
+        <v>104</v>
+      </c>
+      <c r="C11" s="52">
+        <v>11295</v>
+      </c>
+      <c r="D11" t="s" s="32">
+        <v>38</v>
+      </c>
+      <c r="E11" s="33">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s" s="32">
+        <v>39</v>
+      </c>
+      <c r="G11" t="s" s="28">
         <v>26</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" t="s" s="9">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-    </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="22"/>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="s" s="9">
-        <v>76</v>
-      </c>
-      <c r="B11" t="s" s="12">
-        <v>77</v>
-      </c>
-      <c r="C11" s="23">
-        <v>11295</v>
-      </c>
-      <c r="D11" t="s" s="13">
-        <v>29</v>
-      </c>
-      <c r="E11" s="14">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s" s="13">
-        <v>30</v>
-      </c>
-      <c r="G11" t="s" s="9">
-        <v>16</v>
-      </c>
     </row>
     <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="s" s="9">
-        <v>78</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" t="s" s="9">
-        <v>16</v>
+      <c r="A12" t="s" s="28">
+        <v>105</v>
+      </c>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" t="s" s="28">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/RestAssuredTest/src/test/resources/data/testData.xlsx
+++ b/RestAssuredTest/src/test/resources/data/testData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="118">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -342,6 +342,12 @@
     <t>pathAttachment5</t>
   </si>
   <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
     <t>Post_Assignment_Valid</t>
   </si>
   <si>
@@ -373,6 +379,36 @@
   </si>
   <si>
     <t>&lt;set in code&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assignment already exists with given Name : </t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Delete_Assignment_ValidId</t>
+  </si>
+  <si>
+    <t>Assignment deleted successfully</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Delete_Assignment_DeletedId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assignment not found with Id : </t>
+  </si>
+  <si>
+    <t>Get_Assignment_DeletedAssignmentId</t>
+  </si>
+  <si>
+    <t>Get_Assignment_DeletedBatchId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batch not found with Id : </t>
   </si>
   <si>
     <t>Post_ByBatchName_Invalid</t>
@@ -391,7 +427,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -445,6 +481,11 @@
       <name val="Menlo Regular"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color indexed="18"/>
       <name val="Menlo Regular"/>
@@ -471,7 +512,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor indexed="12"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -498,11 +539,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -511,7 +552,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -519,17 +560,17 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right/>
       <top/>
@@ -546,7 +587,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top/>
       <bottom/>
@@ -554,12 +595,23 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,55 +620,44 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top/>
       <bottom/>
@@ -628,7 +669,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -650,28 +691,28 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -689,20 +730,20 @@
     <xf numFmtId="49" fontId="4" fillId="6" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
@@ -749,43 +790,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -808,8 +828,8 @@
       <rgbColor rgb="015e88b1"/>
       <rgbColor rgb="01eef3f4"/>
       <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ff5e88b1"/>
       <rgbColor rgb="ffeef3f4"/>
       <rgbColor rgb="ff2a00ff"/>
@@ -1879,7 +1899,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2057,16 +2077,19 @@
       <c r="D18" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E18" s="24"/>
-    </row>
-    <row r="19">
+      <c r="E18" s="21"/>
+    </row>
+    <row r="19" ht="13" customHeight="1">
+      <c r="A19" s="7"/>
       <c r="B19" t="s" s="3">
         <v>14</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-    </row>
-    <row r="20">
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" ht="13" customHeight="1">
+      <c r="A20" s="20"/>
       <c r="B20" s="4"/>
       <c r="C20" t="s" s="4">
         <v>5</v>
@@ -2074,6 +2097,7 @@
       <c r="D20" t="s" s="5">
         <v>14</v>
       </c>
+      <c r="E20" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2083,10 +2107,11 @@
   <hyperlinks>
     <hyperlink ref="D10" location="'Export Summary'!R1C1" tooltip="" display="Export Summary"/>
     <hyperlink ref="D10" location="'batch'!R1C1" tooltip="" display="batch"/>
-    <hyperlink ref="D12" location="'program'!R1C1" tooltip="" display="program"/>
-    <hyperlink ref="D14" location="'user'!R1C1" tooltip="" display="user"/>
-    <hyperlink ref="D16" location="'assignment'!R1C1" tooltip="" display="assignment"/>
-    <hyperlink ref="D18" location="'hf'!R1C1" tooltip="" display="hf"/>
+    <hyperlink ref="D12" location="'batch'!R1C1" tooltip="" display="batch"/>
+    <hyperlink ref="D14" location="'program'!R1C1" tooltip="" display="program"/>
+    <hyperlink ref="D16" location="'user'!R1C1" tooltip="" display="user"/>
+    <hyperlink ref="D18" location="'assignment'!R1C1" tooltip="" display="assignment"/>
+    <hyperlink ref="D20" location="'hf'!R1C1" tooltip="" display="hf"/>
     <hyperlink ref="D12" location="'batch'!R1C1" tooltip="" display="batch"/>
     <hyperlink ref="D14" location="'program'!R1C1" tooltip="" display="program"/>
     <hyperlink ref="D16" location="'user'!R1C1" tooltip="" display="user"/>
@@ -2641,60 +2666,60 @@
       <c r="E2" s="39"/>
     </row>
     <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="43"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="42"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="43"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="42"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="43"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="42"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="43"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="42"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="43"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="42"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="43"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="42"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="45"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
@@ -2713,11 +2738,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="37" style="48" customWidth="1"/>
-    <col min="2" max="2" width="36" style="48" customWidth="1"/>
-    <col min="3" max="3" width="18.1719" style="48" customWidth="1"/>
-    <col min="4" max="13" width="37.1719" style="48" customWidth="1"/>
-    <col min="14" max="16384" width="9.85156" style="48" customWidth="1"/>
+    <col min="1" max="1" width="37" style="41" customWidth="1"/>
+    <col min="2" max="2" width="36" style="41" customWidth="1"/>
+    <col min="3" max="3" width="18.1719" style="41" customWidth="1"/>
+    <col min="4" max="13" width="37.1719" style="41" customWidth="1"/>
+    <col min="14" max="16384" width="9.85156" style="41" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">
@@ -2803,124 +2828,124 @@
       </c>
     </row>
     <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="49"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="9"/>
     </row>
     <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="43"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="42"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="12"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="43"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="42"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="12"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="43"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="42"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="43"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="42"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="12"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="43"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="42"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="12"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="43"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="42"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="12"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="45"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="47"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="21"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2936,18 +2961,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="30" style="50" customWidth="1"/>
-    <col min="2" max="2" width="38.5" style="50" customWidth="1"/>
-    <col min="3" max="3" width="24" style="50" customWidth="1"/>
-    <col min="4" max="4" width="27.5" style="50" customWidth="1"/>
-    <col min="5" max="9" width="18" style="50" customWidth="1"/>
-    <col min="10" max="16384" width="9.85156" style="50" customWidth="1"/>
+    <col min="1" max="1" width="33.6719" style="42" customWidth="1"/>
+    <col min="2" max="2" width="38.5" style="42" customWidth="1"/>
+    <col min="3" max="3" width="24" style="42" customWidth="1"/>
+    <col min="4" max="4" width="27.5" style="42" customWidth="1"/>
+    <col min="5" max="9" width="18" style="42" customWidth="1"/>
+    <col min="10" max="10" width="44.8516" style="42" customWidth="1"/>
+    <col min="11" max="11" width="18" style="42" customWidth="1"/>
+    <col min="12" max="16384" width="9.85156" style="42" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">
@@ -2978,152 +3005,206 @@
       <c r="I1" t="s" s="26">
         <v>91</v>
       </c>
+      <c r="J1" t="s" s="26">
+        <v>92</v>
+      </c>
+      <c r="K1" t="s" s="26">
+        <v>93</v>
+      </c>
     </row>
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="s" s="28">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s" s="28">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s" s="28">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s" s="28">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E2" t="s" s="28">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F2" t="s" s="28">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G2" t="s" s="28">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H2" t="s" s="28">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I2" t="s" s="28">
-        <v>100</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="s" s="28">
+        <v>103</v>
+      </c>
+      <c r="B3" t="s" s="28">
+        <v>104</v>
+      </c>
+      <c r="C3" t="s" s="28">
+        <v>96</v>
+      </c>
+      <c r="D3" t="s" s="28">
+        <v>97</v>
+      </c>
+      <c r="E3" t="s" s="28">
+        <v>98</v>
+      </c>
+      <c r="F3" t="s" s="28">
+        <v>99</v>
+      </c>
+      <c r="G3" t="s" s="28">
+        <v>100</v>
+      </c>
+      <c r="H3" t="s" s="28">
         <v>101</v>
       </c>
-      <c r="B3" t="s" s="28">
+      <c r="I3" t="s" s="28">
         <v>102</v>
       </c>
-      <c r="C3" t="s" s="28">
-        <v>94</v>
-      </c>
-      <c r="D3" t="s" s="28">
-        <v>95</v>
-      </c>
-      <c r="E3" t="s" s="28">
-        <v>96</v>
-      </c>
-      <c r="F3" t="s" s="28">
-        <v>97</v>
-      </c>
-      <c r="G3" t="s" s="28">
-        <v>98</v>
-      </c>
-      <c r="H3" t="s" s="28">
-        <v>99</v>
-      </c>
-      <c r="I3" t="s" s="28">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="40"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="49"/>
-    </row>
-    <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="43"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="42"/>
-    </row>
-    <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="43"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="42"/>
-    </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="43"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="42"/>
+      <c r="J3" t="s" s="43">
+        <v>105</v>
+      </c>
+      <c r="K3" t="s" s="28">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="s" s="28">
+        <v>107</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" t="s" s="43">
+        <v>108</v>
+      </c>
+      <c r="K4" t="s" s="28">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="s" s="28">
+        <v>110</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" t="s" s="43">
+        <v>111</v>
+      </c>
+      <c r="K5" t="s" s="28">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="s" s="28">
+        <v>112</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" t="s" s="43">
+        <v>111</v>
+      </c>
+      <c r="K6" t="s" s="28">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="s" s="28">
+        <v>113</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" t="s" s="43">
+        <v>114</v>
+      </c>
+      <c r="K7" t="s" s="28">
+        <v>106</v>
+      </c>
     </row>
     <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="43"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="42"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="9"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="43"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="42"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="12"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="43"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="42"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="12"/>
     </row>
     <row r="11" ht="13.55" customHeight="1">
-      <c r="A11" s="45"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="47"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
@@ -3142,10 +3223,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="35.6719" style="51" customWidth="1"/>
-    <col min="2" max="2" width="30.8516" style="51" customWidth="1"/>
-    <col min="3" max="7" width="10.8516" style="51" customWidth="1"/>
-    <col min="8" max="16384" width="10.8516" style="51" customWidth="1"/>
+    <col min="1" max="1" width="35.6719" style="44" customWidth="1"/>
+    <col min="2" max="2" width="30.8516" style="44" customWidth="1"/>
+    <col min="3" max="7" width="10.8516" style="44" customWidth="1"/>
+    <col min="8" max="16384" width="10.8516" style="44" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
@@ -3272,12 +3353,12 @@
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="s" s="28">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="B11" t="s" s="31">
-        <v>104</v>
-      </c>
-      <c r="C11" s="52">
+        <v>116</v>
+      </c>
+      <c r="C11" s="45">
         <v>11295</v>
       </c>
       <c r="D11" t="s" s="32">
@@ -3295,7 +3376,7 @@
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="s" s="28">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>

--- a/RestAssuredTest/src/test/resources/data/testData.xlsx
+++ b/RestAssuredTest/src/test/resources/data/testData.xlsx
@@ -1,31 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AKandan1/git/Team2_TestingTurtles/RestAssuredTest/src/test/resources/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB136BA-6D92-BD4A-9112-70533AC6449D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="10480" yWindow="500" windowWidth="15960" windowHeight="18080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Export Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="batch" sheetId="2" r:id="rId2"/>
-    <sheet name="program" sheetId="3" r:id="rId3"/>
-    <sheet name="user" sheetId="4" r:id="rId4"/>
-    <sheet name="assignment" sheetId="5" r:id="rId5"/>
-    <sheet name="hf" sheetId="6" r:id="rId6"/>
+    <sheet name="Export Summary" sheetId="1" r:id="rId4"/>
+    <sheet name="batch" sheetId="2" r:id="rId5"/>
+    <sheet name="program" sheetId="3" r:id="rId6"/>
+    <sheet name="user" sheetId="4" r:id="rId7"/>
+    <sheet name="assignment" sheetId="5" r:id="rId8"/>
+    <sheet name="hf" sheetId="6" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="115">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -37,6 +28,9 @@
   </si>
   <si>
     <t>Excel Worksheet Name</t>
+  </si>
+  <si>
+    <t>Export Summary</t>
   </si>
   <si>
     <t>Table 1</t>
@@ -47,11 +41,10 @@
   <si>
     <r>
       <rPr>
-        <u/>
+        <u val="single"/>
         <sz val="12"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>batch</t>
     </r>
@@ -60,198 +53,212 @@
     <t>program</t>
   </si>
   <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>assignment</t>
-  </si>
-  <si>
-    <t>hf</t>
-  </si>
-  <si>
-    <t>dataKey</t>
-  </si>
-  <si>
-    <t>BatchName</t>
-  </si>
-  <si>
-    <t>BatchStatus</t>
-  </si>
-  <si>
-    <t>NoOfClasses</t>
-  </si>
-  <si>
-    <t>BatchDescription</t>
-  </si>
-  <si>
-    <t>endpoint</t>
-  </si>
-  <si>
-    <t>requestBody</t>
-  </si>
-  <si>
-    <t>responseBody</t>
-  </si>
-  <si>
-    <t>responseSchema</t>
-  </si>
-  <si>
-    <t>Get_All_Valid</t>
-  </si>
-  <si>
-    <t>batches</t>
-  </si>
-  <si>
-    <t>Get_All_Invalid</t>
-  </si>
-  <si>
-    <t>Get_ByBatchId_Valid</t>
-  </si>
-  <si>
-    <t>batchId</t>
-  </si>
-  <si>
-    <t>Get_ByBatchId_Invalid</t>
-  </si>
-  <si>
-    <t>Get_ByBatchName_Valid</t>
-  </si>
-  <si>
-    <t>batchName</t>
-  </si>
-  <si>
-    <t>Get_ByBatchName_Invalid</t>
-  </si>
-  <si>
-    <t>Get_ByProgramId_Valid</t>
-  </si>
-  <si>
-    <t>Get_ByProgramId_Invalid</t>
-  </si>
-  <si>
-    <t>Post_Batch_Valid</t>
-  </si>
-  <si>
-    <t>SDET</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>Sdet</t>
-  </si>
-  <si>
-    <t>Post_Batch_Existing</t>
-  </si>
-  <si>
-    <t>Post_Batch_Missing_BatchStatus</t>
-  </si>
-  <si>
-    <t>Post_Batch_Missing_BatchName</t>
-  </si>
-  <si>
-    <t>Post_Batch_Missing_NoOfClasses</t>
-  </si>
-  <si>
-    <t>Post_Batch_Missing_ProgramId</t>
-  </si>
-  <si>
-    <t>Put_Batch_Valid</t>
-  </si>
-  <si>
-    <t>Put_Batch_Missing_BatchStatus</t>
-  </si>
-  <si>
-    <t>Put_Batch_Missing_BatchName</t>
-  </si>
-  <si>
-    <t>Put_Batch_Missing_NoOfClasses</t>
-  </si>
-  <si>
-    <t>Put_Batch_Missing_ProgramId</t>
-  </si>
-  <si>
-    <t>Put_Batch_Invalid</t>
-  </si>
-  <si>
-    <t>Post_Batch_Assignment</t>
-  </si>
-  <si>
-    <t>Jul23-TestingTurtles-SDET-SDET01-</t>
-  </si>
-  <si>
-    <t>Created for Assignment testing</t>
-  </si>
-  <si>
-    <t>programName</t>
-  </si>
-  <si>
-    <t>programStatus</t>
-  </si>
-  <si>
-    <t>programDescription</t>
-  </si>
-  <si>
-    <t>Post_Program_Assignment</t>
-  </si>
-  <si>
-    <t>userFirstName</t>
-  </si>
-  <si>
-    <t>userLastName</t>
-  </si>
-  <si>
-    <t>userMiddleName</t>
-  </si>
-  <si>
-    <t>userComments</t>
-  </si>
-  <si>
-    <t>userEduPg</t>
-  </si>
-  <si>
-    <t>userEduUg</t>
-  </si>
-  <si>
-    <t>userLinkedinUrl</t>
-  </si>
-  <si>
-    <t>userLocation</t>
-  </si>
-  <si>
-    <t>roleId</t>
-  </si>
-  <si>
-    <t>userRoleStatus</t>
-  </si>
-  <si>
-    <t>userTimeZone</t>
-  </si>
-  <si>
-    <t>userVisaStatus</t>
-  </si>
-  <si>
-    <t>Post_User_Assignment</t>
-  </si>
-  <si>
-    <t>TestingTurtles_</t>
-  </si>
-  <si>
-    <t>TestUser</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>BE</t>
-  </si>
-  <si>
     <r>
       <rPr>
-        <u/>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>program</t>
+    </r>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>user</t>
+    </r>
+  </si>
+  <si>
+    <t>assignment</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>assignment</t>
+    </r>
+  </si>
+  <si>
+    <t>hf</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>hf</t>
+    </r>
+  </si>
+  <si>
+    <t>dataKey</t>
+  </si>
+  <si>
+    <t>BatchName</t>
+  </si>
+  <si>
+    <t>BatchStatus</t>
+  </si>
+  <si>
+    <t>NoOfClasses</t>
+  </si>
+  <si>
+    <t>BatchDescription</t>
+  </si>
+  <si>
+    <t>endpoint</t>
+  </si>
+  <si>
+    <t>requestBody</t>
+  </si>
+  <si>
+    <t>responseBody</t>
+  </si>
+  <si>
+    <t>responseSchema</t>
+  </si>
+  <si>
+    <t>Post_Batch_Valid</t>
+  </si>
+  <si>
+    <t>SDET</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Sdet</t>
+  </si>
+  <si>
+    <t>batches</t>
+  </si>
+  <si>
+    <t>Post_Batch_Existing</t>
+  </si>
+  <si>
+    <t>Post_Batch_Missing_BatchStatus</t>
+  </si>
+  <si>
+    <t>Post_Batch_Missing_BatchName</t>
+  </si>
+  <si>
+    <t>Post_Batch_Missing_NoOfClasses</t>
+  </si>
+  <si>
+    <t>Post_Batch_Missing_ProgramId</t>
+  </si>
+  <si>
+    <t>Put_Batch_Valid</t>
+  </si>
+  <si>
+    <t>Put_Batch_Missing_BatchStatus</t>
+  </si>
+  <si>
+    <t>Put_Batch_Missing_BatchName</t>
+  </si>
+  <si>
+    <t>Put_Batch_Missing_NoOfClasses</t>
+  </si>
+  <si>
+    <t>Put_Batch_Missing_ProgramId</t>
+  </si>
+  <si>
+    <t>Put_Batch_Invalid</t>
+  </si>
+  <si>
+    <t>Post_Batch_Assignment</t>
+  </si>
+  <si>
+    <t>Jul23-TestingTurtles-SDET-SDET01-</t>
+  </si>
+  <si>
+    <t>Created for Assignment testing</t>
+  </si>
+  <si>
+    <t>programName</t>
+  </si>
+  <si>
+    <t>programStatus</t>
+  </si>
+  <si>
+    <t>programDescription</t>
+  </si>
+  <si>
+    <t>Post_Program_Assignment</t>
+  </si>
+  <si>
+    <t>userFirstName</t>
+  </si>
+  <si>
+    <t>userLastName</t>
+  </si>
+  <si>
+    <t>userMiddleName</t>
+  </si>
+  <si>
+    <t>userComments</t>
+  </si>
+  <si>
+    <t>userEduPg</t>
+  </si>
+  <si>
+    <t>userEduUg</t>
+  </si>
+  <si>
+    <t>userLinkedinUrl</t>
+  </si>
+  <si>
+    <t>userLocation</t>
+  </si>
+  <si>
+    <t>roleId</t>
+  </si>
+  <si>
+    <t>userRoleStatus</t>
+  </si>
+  <si>
+    <t>userTimeZone</t>
+  </si>
+  <si>
+    <t>userVisaStatus</t>
+  </si>
+  <si>
+    <t>Post_User_Assignment</t>
+  </si>
+  <si>
+    <t>TestingTurtles_</t>
+  </si>
+  <si>
+    <t>TestUser</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
         <sz val="12"/>
         <color indexed="11"/>
         <rFont val="Menlo Regular"/>
@@ -296,6 +303,12 @@
     <t>pathAttachment5</t>
   </si>
   <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
     <t>Post_Assignment_Valid</t>
   </si>
   <si>
@@ -327,6 +340,66 @@
   </si>
   <si>
     <t>&lt;set in code&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assignment already exists with given Name : </t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Delete_Assignment_ValidId</t>
+  </si>
+  <si>
+    <t>Assignment deleted successfully</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Delete_Assignment_DeletedId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assignment not found with Id : </t>
+  </si>
+  <si>
+    <t>Get_Assignment_DeletedAssignmentId</t>
+  </si>
+  <si>
+    <t>Get_Assignment_DeletedBatchId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batch not found with Id : </t>
+  </si>
+  <si>
+    <t>Get_All_Valid</t>
+  </si>
+  <si>
+    <t>Get_All_Invalid</t>
+  </si>
+  <si>
+    <t>Get_ByBatchId_Valid</t>
+  </si>
+  <si>
+    <t>batchId</t>
+  </si>
+  <si>
+    <t>Get_ByBatchId_Invalid</t>
+  </si>
+  <si>
+    <t>Get_ByBatchName_Valid</t>
+  </si>
+  <si>
+    <t>batchName</t>
+  </si>
+  <si>
+    <t>Get_ByBatchName_Invalid</t>
+  </si>
+  <si>
+    <t>Get_ByProgramId_Valid</t>
+  </si>
+  <si>
+    <t>Get_ByProgramId_Invalid</t>
   </si>
   <si>
     <t>Post_ByBatchName_Invalid</t>
@@ -341,8 +414,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -352,20 +428,27 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <u/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <u val="single"/>
       <sz val="12"/>
       <color indexed="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="12"/>
@@ -383,10 +466,15 @@
       <name val="Menlo Regular"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="12"/>
       <color indexed="11"/>
       <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="12"/>
@@ -415,7 +503,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor indexed="12"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -432,7 +520,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -442,11 +530,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -455,7 +543,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -463,17 +551,17 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right/>
       <top/>
@@ -490,7 +578,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top/>
       <bottom/>
@@ -498,12 +586,23 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,197 +611,208 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="47">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="4" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -713,85 +823,32 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="015E88B1"/>
-      <rgbColor rgb="01EEF3F4"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FF5E88B1"/>
-      <rgbColor rgb="FFEEF3F4"/>
-      <rgbColor rgb="FF2A00FF"/>
-      <rgbColor rgb="FF0451A5"/>
-      <rgbColor rgb="FF098658"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="015e88b1"/>
+      <rgbColor rgb="01eef3f4"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ff5e88b1"/>
+      <rgbColor rgb="ffeef3f4"/>
+      <rgbColor rgb="ff2a00ff"/>
+      <rgbColor rgb="ff0451a5"/>
+      <rgbColor rgb="ff098658"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -993,7 +1050,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1012,7 +1069,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1042,7 +1099,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1068,7 +1125,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1094,7 +1151,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1120,7 +1177,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1146,7 +1203,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1172,7 +1229,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1198,7 +1255,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1224,7 +1281,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1250,7 +1307,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1263,15 +1320,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1288,7 +1339,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1307,7 +1358,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1333,7 +1384,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1359,7 +1410,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1385,7 +1436,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1411,7 +1462,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1437,7 +1488,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1463,7 +1514,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1489,7 +1540,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1515,7 +1566,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1541,7 +1592,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1554,15 +1605,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1576,7 +1621,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1595,7 +1640,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1625,7 +1670,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1651,7 +1696,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1677,7 +1722,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1703,7 +1748,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1729,7 +1774,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1755,7 +1800,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1781,7 +1826,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1807,7 +1852,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1833,7 +1878,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1846,239 +1891,242 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="13" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="2" style="4" customWidth="1"/>
-    <col min="2" max="4" width="30.5" style="4" customWidth="1"/>
-    <col min="5" max="6" width="10" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="10" style="4"/>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="1" max="1" width="2" style="6" customWidth="1"/>
+    <col min="2" max="4" width="30.5547" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="30.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="10" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A1" s="5"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
-    </row>
-    <row r="3" spans="1:5" ht="50" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="42" t="s">
+    <row r="1" ht="13.5" customHeight="1">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" ht="13.5" customHeight="1">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" ht="50" customHeight="1">
+      <c r="A3" s="10"/>
+      <c r="B3" t="s" s="13">
         <v>0</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="10"/>
-    </row>
-    <row r="4" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="5" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="1:5" ht="19">
-      <c r="A7" s="8"/>
-      <c r="B7" s="11" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" ht="13.5" customHeight="1">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" ht="13.5" customHeight="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" ht="13.5" customHeight="1">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="10"/>
+      <c r="B7" t="s" s="14">
         <v>1</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" t="s" s="14">
         <v>2</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" t="s" s="14">
         <v>3</v>
       </c>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" ht="16">
-      <c r="A9" s="8"/>
-      <c r="B9" s="12" t="s">
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" ht="13.5" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="10"/>
+      <c r="B9" t="s" s="15">
+        <v>6</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="10"/>
+      <c r="B10" s="17"/>
+      <c r="C10" t="s" s="18">
         <v>5</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:5" ht="16">
-      <c r="A10" s="8"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" t="s" s="19">
+        <v>7</v>
+      </c>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" ht="13" customHeight="1">
+      <c r="A11" s="10"/>
+      <c r="B11" t="s" s="3">
         <v>6</v>
       </c>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="1:5" ht="13" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" ht="13" customHeight="1">
+      <c r="A12" s="10"/>
+      <c r="B12" s="4"/>
+      <c r="C12" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="1:5" ht="13" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" t="s" s="5">
+        <v>6</v>
+      </c>
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" ht="13" customHeight="1">
+      <c r="A13" s="10"/>
+      <c r="B13" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" ht="13" customHeight="1">
+      <c r="A14" s="10"/>
+      <c r="B14" s="4"/>
+      <c r="C14" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="1:5" ht="13" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="1:5" ht="13" customHeight="1">
-      <c r="A14" s="8"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="10"/>
-    </row>
-    <row r="15" spans="1:5" ht="13" customHeight="1">
-      <c r="A15" s="8"/>
-      <c r="B15" s="1" t="s">
+      <c r="D14" t="s" s="5">
         <v>8</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" spans="1:5" ht="13" customHeight="1">
-      <c r="A16" s="8"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="1:5" ht="13" customHeight="1">
-      <c r="A17" s="8"/>
-      <c r="B17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="1:5" ht="13" customHeight="1">
-      <c r="A18" s="17"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="18"/>
-    </row>
-    <row r="19" spans="1:5" ht="16">
-      <c r="B19" s="1" t="s">
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" ht="13" customHeight="1">
+      <c r="A15" s="10"/>
+      <c r="B15" t="s" s="3">
         <v>10</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" ht="16">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" ht="13" customHeight="1">
+      <c r="A16" s="10"/>
+      <c r="B16" s="4"/>
+      <c r="C16" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s" s="5">
         <v>10</v>
       </c>
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" ht="13" customHeight="1">
+      <c r="A17" s="10"/>
+      <c r="B17" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" ht="13" customHeight="1">
+      <c r="A18" s="20"/>
+      <c r="B18" s="4"/>
+      <c r="C18" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="E18" s="21"/>
+    </row>
+    <row r="19" ht="13" customHeight="1">
+      <c r="A19" s="7"/>
+      <c r="B19" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" ht="13" customHeight="1">
+      <c r="A20" s="20"/>
+      <c r="B20" s="4"/>
+      <c r="C20" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s" s="5">
+        <v>14</v>
+      </c>
+      <c r="E20" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="B3:D3"/>
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D10" location="'Export Summary'!R1C1" display="Export Summary" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D10" location="'batch'!R1C1" display="batch" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D12" location="'program'!R1C1" display="program" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D14" location="'user'!R1C1" display="user" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D16" location="'assignment'!R1C1" display="assignment" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D18" location="'hf'!R1C1" display="hf" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D12" location="'batch'!R1C1" display="batch" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D14" location="'program'!R1C1" display="program" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D16" location="'user'!R1C1" display="user" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="D18" location="'assignment'!R1C1" display="assignment" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="D20" location="'hf'!R1C1" display="hf" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D10" location="'Export Summary'!R1C1" tooltip="" display="Export Summary"/>
+    <hyperlink ref="D10" location="'batch'!R1C1" tooltip="" display="batch"/>
+    <hyperlink ref="D12" location="'batch'!R1C1" tooltip="" display="batch"/>
+    <hyperlink ref="D14" location="'program'!R1C1" tooltip="" display="program"/>
+    <hyperlink ref="D16" location="'user'!R1C1" tooltip="" display="user"/>
+    <hyperlink ref="D18" location="'assignment'!R1C1" tooltip="" display="assignment"/>
+    <hyperlink ref="D20" location="'hf'!R1C1" tooltip="" display="hf"/>
+    <hyperlink ref="D12" location="'batch'!R1C1" tooltip="" display="batch"/>
+    <hyperlink ref="D14" location="'program'!R1C1" tooltip="" display="program"/>
+    <hyperlink ref="D16" location="'user'!R1C1" tooltip="" display="user"/>
+    <hyperlink ref="D18" location="'assignment'!R1C1" tooltip="" display="assignment"/>
+    <hyperlink ref="D20" location="'hf'!R1C1" tooltip="" display="hf"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2086,345 +2134,342 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.83203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="37" style="4" customWidth="1"/>
-    <col min="2" max="2" width="36" style="4" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="37.1640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="45.1640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="45.83203125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="57.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="9.83203125" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="9.83203125" style="4"/>
+    <col min="1" max="1" width="37" style="25" customWidth="1"/>
+    <col min="2" max="2" width="36" style="25" customWidth="1"/>
+    <col min="3" max="3" width="18.1719" style="25" customWidth="1"/>
+    <col min="4" max="4" width="18.3516" style="25" customWidth="1"/>
+    <col min="5" max="5" width="37.1719" style="25" customWidth="1"/>
+    <col min="6" max="6" width="15.6719" style="25" customWidth="1"/>
+    <col min="7" max="7" width="45.1719" style="25" customWidth="1"/>
+    <col min="8" max="8" width="45.8516" style="25" customWidth="1"/>
+    <col min="9" max="9" width="57.5" style="25" customWidth="1"/>
+    <col min="10" max="16384" width="9.85156" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16" customHeight="1">
-      <c r="A1" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="20" t="s">
+    <row r="1" ht="16" customHeight="1">
+      <c r="A1" t="s" s="26">
         <v>16</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="B1" t="s" s="26">
         <v>17</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="C1" t="s" s="26">
         <v>18</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="D1" t="s" s="26">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1">
-      <c r="A2" s="21" t="s">
+      <c r="E1" t="s" s="26">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s" s="27">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s" s="26">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s" s="26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" t="s" s="28">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s" s="29">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s" s="30">
+        <v>27</v>
+      </c>
+      <c r="D2" s="31">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="30">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s" s="27">
+        <v>29</v>
+      </c>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="s" s="28">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="29">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s" s="30">
+        <v>27</v>
+      </c>
+      <c r="D3" s="31">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s" s="30">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s" s="27">
+        <v>29</v>
+      </c>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="s" s="28">
         <v>31</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B4" t="s" s="29">
+        <v>26</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="31">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="30">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s" s="27">
+        <v>29</v>
+      </c>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="s" s="28">
         <v>32</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="B5" s="32"/>
+      <c r="C5" t="s" s="30">
+        <v>27</v>
+      </c>
+      <c r="D5" s="31">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s" s="30">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s" s="27">
+        <v>29</v>
+      </c>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="s" s="28">
         <v>33</v>
       </c>
-      <c r="D2" s="26">
+      <c r="B6" t="s" s="29">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s" s="30">
+        <v>27</v>
+      </c>
+      <c r="D6" s="33"/>
+      <c r="E6" t="s" s="30">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s" s="27">
+        <v>29</v>
+      </c>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="s" s="28">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s" s="29">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s" s="30">
+        <v>27</v>
+      </c>
+      <c r="D7" s="31">
         <v>1</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1">
-      <c r="A3" s="21" t="s">
+      <c r="E7" t="s" s="30">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s" s="27">
+        <v>29</v>
+      </c>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="s" s="28">
         <v>35</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="26">
+      <c r="B8" t="s" s="29">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s" s="30">
+        <v>27</v>
+      </c>
+      <c r="D8" s="31">
         <v>1</v>
       </c>
-      <c r="E3" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1">
-      <c r="A4" s="21" t="s">
+      <c r="E8" t="s" s="30">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s" s="27">
+        <v>29</v>
+      </c>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="s" s="28">
         <v>36</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="26">
+      <c r="B9" t="s" s="29">
+        <v>26</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="31">
         <v>1</v>
       </c>
-      <c r="E4" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1">
-      <c r="A5" s="21" t="s">
+      <c r="E9" t="s" s="30">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s" s="27">
+        <v>29</v>
+      </c>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="s" s="28">
         <v>37</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="26">
+      <c r="B10" s="32"/>
+      <c r="C10" t="s" s="30">
+        <v>27</v>
+      </c>
+      <c r="D10" s="31">
         <v>1</v>
       </c>
-      <c r="E5" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1">
-      <c r="A6" s="21" t="s">
+      <c r="E10" t="s" s="30">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s" s="27">
+        <v>29</v>
+      </c>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="s" s="28">
         <v>38</v>
       </c>
-      <c r="B6" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1">
-      <c r="A7" s="21" t="s">
+      <c r="B11" t="s" s="29">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s" s="30">
+        <v>27</v>
+      </c>
+      <c r="D11" s="33"/>
+      <c r="E11" t="s" s="30">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s" s="27">
+        <v>29</v>
+      </c>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="s" s="28">
         <v>39</v>
       </c>
-      <c r="B7" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="26">
+      <c r="B12" t="s" s="29">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s" s="30">
+        <v>27</v>
+      </c>
+      <c r="D12" s="31">
         <v>1</v>
       </c>
-      <c r="E7" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1">
-      <c r="A8" s="21" t="s">
+      <c r="E12" t="s" s="30">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s" s="27">
+        <v>29</v>
+      </c>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="s" s="28">
         <v>40</v>
       </c>
-      <c r="B8" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="26">
+      <c r="B13" t="s" s="29">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s" s="30">
+        <v>27</v>
+      </c>
+      <c r="D13" s="31">
         <v>1</v>
       </c>
-      <c r="E8" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1">
-      <c r="A9" s="21" t="s">
+      <c r="E13" t="s" s="30">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s" s="27">
+        <v>29</v>
+      </c>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="s" s="28">
         <v>41</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="26">
-        <v>1</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1">
-      <c r="A10" s="21" t="s">
+      <c r="B14" t="s" s="28">
         <v>42</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="26">
-        <v>1</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1">
-      <c r="A11" s="21" t="s">
+      <c r="C14" t="s" s="28">
+        <v>27</v>
+      </c>
+      <c r="D14" s="34">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s" s="28">
         <v>43</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1">
-      <c r="A12" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="26">
-        <v>1</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1">
-      <c r="A13" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="26">
-        <v>1</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1">
-      <c r="A14" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="28">
-        <v>2</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180599999999998" footer="0.51180599999999998"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2432,112 +2477,110 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.83203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="37" style="4" customWidth="1"/>
-    <col min="2" max="2" width="36" style="4" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="37.1640625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="9.83203125" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9.83203125" style="4"/>
+    <col min="1" max="1" width="37" style="36" customWidth="1"/>
+    <col min="2" max="2" width="36" style="36" customWidth="1"/>
+    <col min="3" max="3" width="18.1719" style="36" customWidth="1"/>
+    <col min="4" max="4" width="37.1719" style="36" customWidth="1"/>
+    <col min="5" max="5" width="9.85156" style="36" customWidth="1"/>
+    <col min="6" max="16384" width="9.85156" style="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" customHeight="1">
-      <c r="A1" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="30"/>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1">
-      <c r="A2" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="31"/>
-    </row>
-    <row r="3" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
-    </row>
-    <row r="4" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A4" s="35"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="34"/>
-    </row>
-    <row r="5" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A5" s="35"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="34"/>
-    </row>
-    <row r="6" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A6" s="35"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="34"/>
-    </row>
-    <row r="7" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A7" s="35"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="34"/>
-    </row>
-    <row r="8" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A8" s="35"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="34"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A9" s="35"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="34"/>
-    </row>
-    <row r="10" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A10" s="37"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
+    <row r="1" ht="16" customHeight="1">
+      <c r="A1" t="s" s="26">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s" s="26">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s" s="26">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s" s="26">
+        <v>46</v>
+      </c>
+      <c r="E1" s="37"/>
+    </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" t="s" s="28">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s" s="28">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s" s="28">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s" s="28">
+        <v>43</v>
+      </c>
+      <c r="E2" s="38"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" ht="13.5" customHeight="1">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" ht="13.5" customHeight="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" ht="13.5" customHeight="1">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" ht="13.5" customHeight="1">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" ht="13.5" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" ht="13.5" customHeight="1">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" ht="13.5" customHeight="1">
+      <c r="A10" s="20"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="21"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180599999999998" footer="0.51180599999999998"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2545,229 +2588,228 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.83203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="37" style="4" customWidth="1"/>
-    <col min="2" max="2" width="36" style="4" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" style="4" customWidth="1"/>
-    <col min="4" max="13" width="37.1640625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="9.83203125" style="4" customWidth="1"/>
-    <col min="15" max="16384" width="9.83203125" style="4"/>
+    <col min="1" max="1" width="37" style="40" customWidth="1"/>
+    <col min="2" max="2" width="36" style="40" customWidth="1"/>
+    <col min="3" max="3" width="18.1719" style="40" customWidth="1"/>
+    <col min="4" max="13" width="37.1719" style="40" customWidth="1"/>
+    <col min="14" max="16384" width="9.85156" style="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16" customHeight="1">
-      <c r="A1" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="19" t="s">
+    <row r="1" ht="16" customHeight="1">
+      <c r="A1" t="s" s="26">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s" s="26">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s" s="26">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s" s="26">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s" s="26">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s" s="26">
+        <v>52</v>
+      </c>
+      <c r="G1" t="s" s="26">
         <v>53</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="H1" t="s" s="26">
         <v>54</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="I1" t="s" s="26">
         <v>55</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="J1" t="s" s="26">
         <v>56</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="K1" t="s" s="26">
         <v>57</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="L1" t="s" s="26">
         <v>58</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="M1" t="s" s="26">
         <v>59</v>
       </c>
-      <c r="I1" s="19" t="s">
+    </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" t="s" s="28">
         <v>60</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="B2" t="s" s="28">
         <v>61</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="C2" t="s" s="28">
         <v>62</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="D2" t="s" s="28">
         <v>63</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="E2" t="s" s="28">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s" s="28">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1">
-      <c r="A2" s="21" t="s">
+      <c r="G2" t="s" s="28">
         <v>65</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="H2" t="s" s="28">
         <v>66</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="I2" t="s" s="28">
         <v>67</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="J2" t="s" s="28">
         <v>68</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="21" t="s">
+      <c r="K2" t="s" s="28">
+        <v>27</v>
+      </c>
+      <c r="L2" t="s" s="28">
         <v>69</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="M2" t="s" s="28">
         <v>70</v>
       </c>
-      <c r="H2" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="K2" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="M2" s="21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="40"/>
-    </row>
-    <row r="4" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A4" s="35"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="34"/>
-    </row>
-    <row r="5" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A5" s="35"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="34"/>
-    </row>
-    <row r="6" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A6" s="35"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="34"/>
-    </row>
-    <row r="7" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A7" s="35"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="34"/>
-    </row>
-    <row r="8" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A8" s="35"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="34"/>
-    </row>
-    <row r="9" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A9" s="35"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="34"/>
-    </row>
-    <row r="10" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A10" s="37"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="39"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" ht="13.5" customHeight="1">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="12"/>
+    </row>
+    <row r="5" ht="13.5" customHeight="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="12"/>
+    </row>
+    <row r="6" ht="13.5" customHeight="1">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" ht="13.5" customHeight="1">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="12"/>
+    </row>
+    <row r="8" ht="13.5" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9" ht="13.5" customHeight="1">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" ht="13.5" customHeight="1">
+      <c r="A10" s="20"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="21"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="H2" r:id="rId1" location="" tooltip="" display="www.linkedin.com/Test1234"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180599999999998" footer="0.51180599999999998"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2775,200 +2817,305 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I11"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.83203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="30" style="4" customWidth="1"/>
-    <col min="2" max="2" width="38.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24" style="4" customWidth="1"/>
-    <col min="4" max="4" width="27.5" style="4" customWidth="1"/>
-    <col min="5" max="9" width="18" style="4" customWidth="1"/>
-    <col min="10" max="10" width="9.83203125" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="9.83203125" style="4"/>
+    <col min="1" max="1" width="30" style="41" customWidth="1"/>
+    <col min="2" max="2" width="38.5" style="41" customWidth="1"/>
+    <col min="3" max="3" width="24" style="41" customWidth="1"/>
+    <col min="4" max="4" width="27.5" style="41" customWidth="1"/>
+    <col min="5" max="11" width="18" style="41" customWidth="1"/>
+    <col min="12" max="16384" width="9.85156" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16" customHeight="1">
-      <c r="A1" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="19" t="s">
+    <row r="1" ht="16" customHeight="1">
+      <c r="A1" t="s" s="26">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s" s="26">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s" s="26">
+        <v>72</v>
+      </c>
+      <c r="D1" t="s" s="26">
+        <v>73</v>
+      </c>
+      <c r="E1" t="s" s="26">
+        <v>74</v>
+      </c>
+      <c r="F1" t="s" s="26">
+        <v>75</v>
+      </c>
+      <c r="G1" t="s" s="26">
         <v>76</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="H1" t="s" s="26">
         <v>77</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="I1" t="s" s="26">
         <v>78</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="J1" t="s" s="26">
         <v>79</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="K1" t="s" s="26">
         <v>80</v>
       </c>
-      <c r="G1" s="19" t="s">
+    </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" t="s" s="28">
         <v>81</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="B2" t="s" s="28">
         <v>82</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="C2" t="s" s="28">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1">
-      <c r="A2" s="21" t="s">
+      <c r="D2" t="s" s="28">
         <v>84</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="E2" t="s" s="28">
         <v>85</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="F2" t="s" s="28">
         <v>86</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="G2" t="s" s="28">
         <v>87</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="H2" t="s" s="28">
         <v>88</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="I2" t="s" s="28">
         <v>89</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="s" s="28">
         <v>90</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="B3" t="s" s="28">
         <v>91</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="C3" t="s" s="28">
+        <v>83</v>
+      </c>
+      <c r="D3" t="s" s="28">
+        <v>84</v>
+      </c>
+      <c r="E3" t="s" s="28">
+        <v>85</v>
+      </c>
+      <c r="F3" t="s" s="28">
+        <v>86</v>
+      </c>
+      <c r="G3" t="s" s="28">
+        <v>87</v>
+      </c>
+      <c r="H3" t="s" s="28">
+        <v>88</v>
+      </c>
+      <c r="I3" t="s" s="28">
+        <v>89</v>
+      </c>
+      <c r="J3" t="s" s="42">
         <v>92</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1">
-      <c r="A3" s="21" t="s">
+      <c r="K3" t="s" s="28">
         <v>93</v>
       </c>
-      <c r="B3" s="21" t="s">
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="s" s="28">
         <v>94</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="40"/>
-    </row>
-    <row r="5" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A5" s="35"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="34"/>
-    </row>
-    <row r="6" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A6" s="35"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="34"/>
-    </row>
-    <row r="7" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A7" s="35"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="34"/>
-    </row>
-    <row r="8" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A8" s="35"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="34"/>
-    </row>
-    <row r="9" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A9" s="35"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="34"/>
-    </row>
-    <row r="10" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A10" s="35"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="34"/>
-    </row>
-    <row r="11" spans="1:9" ht="13.5" customHeight="1">
-      <c r="A11" s="37"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="39"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" t="s" s="42">
+        <v>95</v>
+      </c>
+      <c r="K4" t="s" s="28">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="s" s="28">
+        <v>97</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" t="s" s="42">
+        <v>98</v>
+      </c>
+      <c r="K5" t="s" s="28">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="s" s="28">
+        <v>99</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" t="s" s="42">
+        <v>98</v>
+      </c>
+      <c r="K6" t="s" s="28">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="s" s="28">
+        <v>100</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" t="s" s="42">
+        <v>101</v>
+      </c>
+      <c r="K7" t="s" s="28">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" ht="13.5" customHeight="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+    </row>
+    <row r="9" ht="13.5" customHeight="1">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+    </row>
+    <row r="10" ht="13.5" customHeight="1">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+    </row>
+    <row r="11" ht="13.5" customHeight="1">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+    </row>
+    <row r="12" ht="13.5" customHeight="1">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+    </row>
+    <row r="13" ht="13.5" customHeight="1">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+    </row>
+    <row r="14" ht="13.5" customHeight="1">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+    </row>
+    <row r="15" ht="13.5" customHeight="1">
+      <c r="A15" s="20"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180599999999998" footer="0.51180599999999998"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2976,180 +3123,180 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="30.83203125" style="4" customWidth="1"/>
-    <col min="3" max="8" width="10.83203125" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="4"/>
+    <col min="1" max="1" width="35.6719" style="44" customWidth="1"/>
+    <col min="2" max="2" width="30.8516" style="44" customWidth="1"/>
+    <col min="3" max="7" width="10.8516" style="44" customWidth="1"/>
+    <col min="8" max="16384" width="10.8516" style="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1">
-      <c r="A1" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1">
-      <c r="A2" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1">
-      <c r="A3" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1">
-      <c r="A4" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1">
-      <c r="A5" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="21" t="s">
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" t="s" s="28">
+        <v>102</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" t="s" s="28">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" t="s" s="28">
+        <v>103</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" t="s" s="28">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="s" s="28">
+        <v>104</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" t="s" s="28">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="s" s="28">
+        <v>106</v>
+      </c>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" t="s" s="28">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="s" s="28">
+        <v>107</v>
+      </c>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" t="s" s="28">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="s" s="28">
+        <v>109</v>
+      </c>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" t="s" s="28">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="s" s="28">
+        <v>110</v>
+      </c>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" t="s" s="28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="s" s="28">
+        <v>111</v>
+      </c>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" t="s" s="28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" ht="13.5" customHeight="1">
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+    </row>
+    <row r="10" ht="16" customHeight="1">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="45"/>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="s" s="28">
+        <v>112</v>
+      </c>
+      <c r="B11" t="s" s="29">
+        <v>113</v>
+      </c>
+      <c r="C11" s="46">
+        <v>11295</v>
+      </c>
+      <c r="D11" t="s" s="30">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1">
-      <c r="A6" s="21" t="s">
+      <c r="E11" s="31">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s" s="30">
         <v>28</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1">
-      <c r="A7" s="21" t="s">
+      <c r="G11" t="s" s="28">
         <v>29</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1">
-      <c r="A8" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-    </row>
-    <row r="10" spans="1:7" ht="16" customHeight="1">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="22"/>
-    </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1">
-      <c r="A11" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="41">
-        <v>11295</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="26">
-        <v>1</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1">
-      <c r="A12" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="21" t="s">
-        <v>21</v>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="s" s="28">
+        <v>114</v>
+      </c>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" t="s" s="28">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/RestAssuredTest/src/test/resources/data/testData.xlsx
+++ b/RestAssuredTest/src/test/resources/data/testData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="138">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -288,6 +288,9 @@
     <t>comments</t>
   </si>
   <si>
+    <t>dueDate</t>
+  </si>
+  <si>
     <t>pathAttachment1</t>
   </si>
   <si>
@@ -321,6 +324,9 @@
     <t>Testing for Assignment</t>
   </si>
   <si>
+    <t>2023-07-29T22:00:04.964+00:00</t>
+  </si>
+  <si>
     <t>pathfile1.json</t>
   </si>
   <si>
@@ -339,15 +345,48 @@
     <t>Post_Assignment_Existing</t>
   </si>
   <si>
-    <t>&lt;set in code&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">Assignment already exists with given Name : </t>
   </si>
   <si>
     <t>false</t>
   </si>
   <si>
+    <t>Post_Assignment_MissingAssignmentName</t>
+  </si>
+  <si>
+    <t>Assignment Name is mandatory</t>
+  </si>
+  <si>
+    <t>Post_Assignment_MissingDueDate</t>
+  </si>
+  <si>
+    <t>Due Date is mandatory</t>
+  </si>
+  <si>
+    <t>Post_Assignment_MissingAssignmentDescription</t>
+  </si>
+  <si>
+    <t>Assignment Description is mandatory</t>
+  </si>
+  <si>
+    <t>Post_Assignment_MissingBatchId</t>
+  </si>
+  <si>
+    <t>Batch ID is mandatory</t>
+  </si>
+  <si>
+    <t>Post_Assignment_MissingCreatedBy</t>
+  </si>
+  <si>
+    <t>Created By is mandatory</t>
+  </si>
+  <si>
+    <t>Post_Assignment_MissingGraderId</t>
+  </si>
+  <si>
+    <t>Grader ID is mandatory</t>
+  </si>
+  <si>
     <t>Delete_Assignment_ValidId</t>
   </si>
   <si>
@@ -370,6 +409,36 @@
   </si>
   <si>
     <t xml:space="preserve">Batch not found with Id : </t>
+  </si>
+  <si>
+    <t>Put_Assignment_ValidId</t>
+  </si>
+  <si>
+    <t>SDET SQL Assignment Update</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>Put_Assignment_InvalidId</t>
+  </si>
+  <si>
+    <t>Put_Assignment_MissingAssignmentName</t>
+  </si>
+  <si>
+    <t>Put_Assignment_MissingDueDate</t>
+  </si>
+  <si>
+    <t>Put_Assignment_MissingAssignmentDescription</t>
+  </si>
+  <si>
+    <t>Put_Assignment_MissingBatchId</t>
+  </si>
+  <si>
+    <t>Put_Assignment_MissingCreatedBy</t>
+  </si>
+  <si>
+    <t>Put_Assignment_MissingGraderId</t>
   </si>
   <si>
     <t>Get_All_Valid</t>
@@ -418,7 +487,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -472,13 +541,23 @@
       <name val="Menlo Regular"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color indexed="18"/>
+      <name val="Menlo Regular"/>
+    </font>
+    <font>
       <sz val="13"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="18"/>
+      <color indexed="19"/>
+      <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="20"/>
       <name val="Menlo Regular"/>
     </font>
   </fonts>
@@ -673,7 +752,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -803,6 +882,12 @@
     <xf numFmtId="49" fontId="10" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -812,7 +897,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -841,6 +926,8 @@
       <rgbColor rgb="ffeef3f4"/>
       <rgbColor rgb="ff2a00ff"/>
       <rgbColor rgb="ff0451a5"/>
+      <rgbColor rgb="ff00cdb2"/>
+      <rgbColor rgb="ffd3d3d3"/>
       <rgbColor rgb="ff098658"/>
     </indexedColors>
   </colors>
@@ -2818,18 +2905,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="30" style="41" customWidth="1"/>
+    <col min="1" max="1" width="54" style="41" customWidth="1"/>
     <col min="2" max="2" width="38.5" style="41" customWidth="1"/>
     <col min="3" max="3" width="24" style="41" customWidth="1"/>
     <col min="4" max="4" width="27.5" style="41" customWidth="1"/>
-    <col min="5" max="11" width="18" style="41" customWidth="1"/>
-    <col min="12" max="16384" width="9.85156" style="41" customWidth="1"/>
+    <col min="5" max="10" width="18" style="41" customWidth="1"/>
+    <col min="11" max="11" width="44.8516" style="41" customWidth="1"/>
+    <col min="12" max="12" width="18" style="41" customWidth="1"/>
+    <col min="13" max="16384" width="9.85156" style="41" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">
@@ -2866,252 +2955,787 @@
       <c r="K1" t="s" s="26">
         <v>80</v>
       </c>
+      <c r="L1" t="s" s="26">
+        <v>81</v>
+      </c>
     </row>
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="s" s="28">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s" s="28">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s" s="28">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s" s="28">
-        <v>84</v>
-      </c>
-      <c r="E2" t="s" s="28">
         <v>85</v>
       </c>
+      <c r="E2" t="s" s="42">
+        <v>86</v>
+      </c>
       <c r="F2" t="s" s="28">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G2" t="s" s="28">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H2" t="s" s="28">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I2" t="s" s="28">
-        <v>89</v>
-      </c>
-      <c r="J2" s="28"/>
+        <v>90</v>
+      </c>
+      <c r="J2" t="s" s="28">
+        <v>91</v>
+      </c>
       <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="s" s="28">
+        <v>92</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" t="s" s="28">
+        <v>84</v>
+      </c>
+      <c r="D3" t="s" s="28">
+        <v>85</v>
+      </c>
+      <c r="E3" t="s" s="42">
+        <v>86</v>
+      </c>
+      <c r="F3" t="s" s="28">
+        <v>87</v>
+      </c>
+      <c r="G3" t="s" s="28">
+        <v>88</v>
+      </c>
+      <c r="H3" t="s" s="28">
+        <v>89</v>
+      </c>
+      <c r="I3" t="s" s="28">
         <v>90</v>
       </c>
-      <c r="B3" t="s" s="28">
+      <c r="J3" t="s" s="28">
         <v>91</v>
       </c>
-      <c r="C3" t="s" s="28">
+      <c r="K3" t="s" s="43">
+        <v>93</v>
+      </c>
+      <c r="L3" t="s" s="28">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="s" s="44">
+        <v>95</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" t="s" s="28">
+        <v>84</v>
+      </c>
+      <c r="D4" t="s" s="28">
+        <v>85</v>
+      </c>
+      <c r="E4" t="s" s="42">
+        <v>86</v>
+      </c>
+      <c r="F4" t="s" s="28">
+        <v>87</v>
+      </c>
+      <c r="G4" t="s" s="28">
+        <v>88</v>
+      </c>
+      <c r="H4" t="s" s="28">
+        <v>89</v>
+      </c>
+      <c r="I4" t="s" s="28">
+        <v>90</v>
+      </c>
+      <c r="J4" t="s" s="28">
+        <v>91</v>
+      </c>
+      <c r="K4" t="s" s="43">
+        <v>96</v>
+      </c>
+      <c r="L4" t="s" s="28">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="s" s="44">
+        <v>97</v>
+      </c>
+      <c r="B5" t="s" s="28">
         <v>83</v>
       </c>
-      <c r="D3" t="s" s="28">
+      <c r="C5" t="s" s="28">
         <v>84</v>
       </c>
-      <c r="E3" t="s" s="28">
+      <c r="D5" t="s" s="28">
         <v>85</v>
       </c>
-      <c r="F3" t="s" s="28">
+      <c r="E5" s="42"/>
+      <c r="F5" t="s" s="28">
+        <v>87</v>
+      </c>
+      <c r="G5" t="s" s="28">
+        <v>88</v>
+      </c>
+      <c r="H5" t="s" s="28">
+        <v>89</v>
+      </c>
+      <c r="I5" t="s" s="28">
+        <v>90</v>
+      </c>
+      <c r="J5" t="s" s="28">
+        <v>91</v>
+      </c>
+      <c r="K5" t="s" s="43">
+        <v>98</v>
+      </c>
+      <c r="L5" t="s" s="28">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="s" s="44">
+        <v>99</v>
+      </c>
+      <c r="B6" t="s" s="28">
+        <v>83</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" t="s" s="28">
+        <v>85</v>
+      </c>
+      <c r="E6" t="s" s="42">
         <v>86</v>
       </c>
-      <c r="G3" t="s" s="28">
+      <c r="F6" t="s" s="28">
         <v>87</v>
       </c>
-      <c r="H3" t="s" s="28">
+      <c r="G6" t="s" s="28">
         <v>88</v>
       </c>
-      <c r="I3" t="s" s="28">
+      <c r="H6" t="s" s="28">
         <v>89</v>
       </c>
-      <c r="J3" t="s" s="42">
-        <v>92</v>
-      </c>
-      <c r="K3" t="s" s="28">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="28">
+      <c r="I6" t="s" s="28">
+        <v>90</v>
+      </c>
+      <c r="J6" t="s" s="28">
+        <v>91</v>
+      </c>
+      <c r="K6" t="s" s="43">
+        <v>100</v>
+      </c>
+      <c r="L6" t="s" s="28">
         <v>94</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" t="s" s="42">
-        <v>95</v>
-      </c>
-      <c r="K4" t="s" s="28">
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="s" s="44">
+        <v>101</v>
+      </c>
+      <c r="B7" t="s" s="28">
+        <v>83</v>
+      </c>
+      <c r="C7" t="s" s="28">
+        <v>84</v>
+      </c>
+      <c r="D7" t="s" s="28">
+        <v>85</v>
+      </c>
+      <c r="E7" t="s" s="42">
+        <v>86</v>
+      </c>
+      <c r="F7" t="s" s="28">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s" s="28">
+        <v>88</v>
+      </c>
+      <c r="H7" t="s" s="28">
+        <v>89</v>
+      </c>
+      <c r="I7" t="s" s="28">
+        <v>90</v>
+      </c>
+      <c r="J7" t="s" s="28">
+        <v>91</v>
+      </c>
+      <c r="K7" t="s" s="43">
+        <v>102</v>
+      </c>
+      <c r="L7" t="s" s="28">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="s" s="44">
+        <v>103</v>
+      </c>
+      <c r="B8" t="s" s="28">
+        <v>83</v>
+      </c>
+      <c r="C8" t="s" s="28">
+        <v>84</v>
+      </c>
+      <c r="D8" t="s" s="28">
+        <v>85</v>
+      </c>
+      <c r="E8" t="s" s="42">
+        <v>86</v>
+      </c>
+      <c r="F8" t="s" s="28">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s" s="28">
+        <v>88</v>
+      </c>
+      <c r="H8" t="s" s="28">
+        <v>89</v>
+      </c>
+      <c r="I8" t="s" s="28">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s" s="28">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s" s="43">
+        <v>104</v>
+      </c>
+      <c r="L8" t="s" s="28">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="s" s="42">
+        <v>105</v>
+      </c>
+      <c r="B9" t="s" s="28">
+        <v>83</v>
+      </c>
+      <c r="C9" t="s" s="28">
+        <v>84</v>
+      </c>
+      <c r="D9" t="s" s="28">
+        <v>85</v>
+      </c>
+      <c r="E9" t="s" s="42">
+        <v>86</v>
+      </c>
+      <c r="F9" t="s" s="28">
+        <v>87</v>
+      </c>
+      <c r="G9" t="s" s="28">
+        <v>88</v>
+      </c>
+      <c r="H9" t="s" s="28">
+        <v>89</v>
+      </c>
+      <c r="I9" t="s" s="28">
+        <v>90</v>
+      </c>
+      <c r="J9" t="s" s="28">
+        <v>91</v>
+      </c>
+      <c r="K9" t="s" s="43">
+        <v>106</v>
+      </c>
+      <c r="L9" t="s" s="28">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="s" s="28">
+        <v>107</v>
+      </c>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" t="s" s="43">
+        <v>108</v>
+      </c>
+      <c r="L10" t="s" s="28">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="s" s="28">
+        <v>110</v>
+      </c>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" t="s" s="43">
+        <v>111</v>
+      </c>
+      <c r="L11" t="s" s="28">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="s" s="28">
+        <v>112</v>
+      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" t="s" s="43">
+        <v>111</v>
+      </c>
+      <c r="L12" t="s" s="28">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="s" s="28">
+        <v>113</v>
+      </c>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" t="s" s="43">
+        <v>114</v>
+      </c>
+      <c r="L13" t="s" s="28">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="s" s="28">
+        <v>115</v>
+      </c>
+      <c r="B14" t="s" s="28">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s" s="28">
+        <v>116</v>
+      </c>
+      <c r="D14" t="s" s="28">
+        <v>117</v>
+      </c>
+      <c r="E14" t="s" s="42">
+        <v>86</v>
+      </c>
+      <c r="F14" t="s" s="28">
+        <v>87</v>
+      </c>
+      <c r="G14" t="s" s="28">
+        <v>88</v>
+      </c>
+      <c r="H14" t="s" s="28">
+        <v>89</v>
+      </c>
+      <c r="I14" t="s" s="28">
+        <v>90</v>
+      </c>
+      <c r="J14" t="s" s="28">
+        <v>91</v>
+      </c>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="s" s="28">
+        <v>118</v>
+      </c>
+      <c r="B15" t="s" s="28">
+        <v>83</v>
+      </c>
+      <c r="C15" t="s" s="28">
+        <v>84</v>
+      </c>
+      <c r="D15" t="s" s="28">
+        <v>85</v>
+      </c>
+      <c r="E15" t="s" s="42">
+        <v>86</v>
+      </c>
+      <c r="F15" t="s" s="28">
+        <v>87</v>
+      </c>
+      <c r="G15" t="s" s="28">
+        <v>88</v>
+      </c>
+      <c r="H15" t="s" s="28">
+        <v>89</v>
+      </c>
+      <c r="I15" t="s" s="28">
+        <v>90</v>
+      </c>
+      <c r="J15" t="s" s="28">
+        <v>91</v>
+      </c>
+      <c r="K15" t="s" s="43">
+        <v>111</v>
+      </c>
+      <c r="L15" t="s" s="28">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="s" s="44">
+        <v>119</v>
+      </c>
+      <c r="B16" s="28"/>
+      <c r="C16" t="s" s="28">
+        <v>84</v>
+      </c>
+      <c r="D16" t="s" s="28">
+        <v>85</v>
+      </c>
+      <c r="E16" t="s" s="42">
+        <v>86</v>
+      </c>
+      <c r="F16" t="s" s="28">
+        <v>87</v>
+      </c>
+      <c r="G16" t="s" s="28">
+        <v>88</v>
+      </c>
+      <c r="H16" t="s" s="28">
+        <v>89</v>
+      </c>
+      <c r="I16" t="s" s="28">
+        <v>90</v>
+      </c>
+      <c r="J16" t="s" s="28">
+        <v>91</v>
+      </c>
+      <c r="K16" t="s" s="43">
         <v>96</v>
       </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="28">
-        <v>97</v>
-      </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" t="s" s="42">
+      <c r="L16" t="s" s="28">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="s" s="44">
+        <v>120</v>
+      </c>
+      <c r="B17" t="s" s="28">
+        <v>83</v>
+      </c>
+      <c r="C17" t="s" s="28">
+        <v>84</v>
+      </c>
+      <c r="D17" t="s" s="28">
+        <v>85</v>
+      </c>
+      <c r="E17" s="42"/>
+      <c r="F17" t="s" s="28">
+        <v>87</v>
+      </c>
+      <c r="G17" t="s" s="28">
+        <v>88</v>
+      </c>
+      <c r="H17" t="s" s="28">
+        <v>89</v>
+      </c>
+      <c r="I17" t="s" s="28">
+        <v>90</v>
+      </c>
+      <c r="J17" t="s" s="28">
+        <v>91</v>
+      </c>
+      <c r="K17" t="s" s="43">
         <v>98</v>
       </c>
-      <c r="K5" t="s" s="28">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="28">
-        <v>99</v>
-      </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" t="s" s="42">
-        <v>98</v>
-      </c>
-      <c r="K6" t="s" s="28">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="s" s="28">
+      <c r="L17" t="s" s="28">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="s" s="44">
+        <v>121</v>
+      </c>
+      <c r="B18" t="s" s="28">
+        <v>83</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" t="s" s="28">
+        <v>85</v>
+      </c>
+      <c r="E18" t="s" s="42">
+        <v>86</v>
+      </c>
+      <c r="F18" t="s" s="28">
+        <v>87</v>
+      </c>
+      <c r="G18" t="s" s="28">
+        <v>88</v>
+      </c>
+      <c r="H18" t="s" s="28">
+        <v>89</v>
+      </c>
+      <c r="I18" t="s" s="28">
+        <v>90</v>
+      </c>
+      <c r="J18" t="s" s="28">
+        <v>91</v>
+      </c>
+      <c r="K18" t="s" s="43">
         <v>100</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" t="s" s="42">
-        <v>101</v>
-      </c>
-      <c r="K7" t="s" s="28">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" ht="13.5" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-    </row>
-    <row r="9" ht="13.5" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-    </row>
-    <row r="10" ht="13.5" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-    </row>
-    <row r="11" ht="13.5" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-    </row>
-    <row r="12" ht="13.5" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-    </row>
-    <row r="13" ht="13.5" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-    </row>
-    <row r="14" ht="13.5" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-    </row>
-    <row r="15" ht="13.5" customHeight="1">
-      <c r="A15" s="20"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
+      <c r="L18" t="s" s="28">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="s" s="44">
+        <v>122</v>
+      </c>
+      <c r="B19" t="s" s="28">
+        <v>83</v>
+      </c>
+      <c r="C19" t="s" s="28">
+        <v>84</v>
+      </c>
+      <c r="D19" t="s" s="28">
+        <v>85</v>
+      </c>
+      <c r="E19" t="s" s="42">
+        <v>86</v>
+      </c>
+      <c r="F19" t="s" s="28">
+        <v>87</v>
+      </c>
+      <c r="G19" t="s" s="28">
+        <v>88</v>
+      </c>
+      <c r="H19" t="s" s="28">
+        <v>89</v>
+      </c>
+      <c r="I19" t="s" s="28">
+        <v>90</v>
+      </c>
+      <c r="J19" t="s" s="28">
+        <v>91</v>
+      </c>
+      <c r="K19" t="s" s="43">
+        <v>102</v>
+      </c>
+      <c r="L19" t="s" s="28">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="s" s="44">
+        <v>123</v>
+      </c>
+      <c r="B20" t="s" s="28">
+        <v>83</v>
+      </c>
+      <c r="C20" t="s" s="28">
+        <v>84</v>
+      </c>
+      <c r="D20" t="s" s="28">
+        <v>85</v>
+      </c>
+      <c r="E20" t="s" s="42">
+        <v>86</v>
+      </c>
+      <c r="F20" t="s" s="28">
+        <v>87</v>
+      </c>
+      <c r="G20" t="s" s="28">
+        <v>88</v>
+      </c>
+      <c r="H20" t="s" s="28">
+        <v>89</v>
+      </c>
+      <c r="I20" t="s" s="28">
+        <v>90</v>
+      </c>
+      <c r="J20" t="s" s="28">
+        <v>91</v>
+      </c>
+      <c r="K20" t="s" s="43">
+        <v>104</v>
+      </c>
+      <c r="L20" t="s" s="28">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="s" s="42">
+        <v>124</v>
+      </c>
+      <c r="B21" t="s" s="28">
+        <v>83</v>
+      </c>
+      <c r="C21" t="s" s="28">
+        <v>84</v>
+      </c>
+      <c r="D21" t="s" s="28">
+        <v>85</v>
+      </c>
+      <c r="E21" t="s" s="42">
+        <v>86</v>
+      </c>
+      <c r="F21" t="s" s="28">
+        <v>87</v>
+      </c>
+      <c r="G21" t="s" s="28">
+        <v>88</v>
+      </c>
+      <c r="H21" t="s" s="28">
+        <v>89</v>
+      </c>
+      <c r="I21" t="s" s="28">
+        <v>90</v>
+      </c>
+      <c r="J21" t="s" s="28">
+        <v>91</v>
+      </c>
+      <c r="K21" t="s" s="43">
+        <v>106</v>
+      </c>
+      <c r="L21" t="s" s="28">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" ht="13.5" customHeight="1">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+    </row>
+    <row r="23" ht="13.5" customHeight="1">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+    </row>
+    <row r="24" ht="13.5" customHeight="1">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+    </row>
+    <row r="25" ht="13.5" customHeight="1">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+    </row>
+    <row r="26" ht="13.5" customHeight="1">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+    </row>
+    <row r="27" ht="13.5" customHeight="1">
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+    </row>
+    <row r="28" ht="13.5" customHeight="1">
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+    </row>
+    <row r="29" ht="13.5" customHeight="1">
+      <c r="A29" s="20"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
@@ -3130,112 +3754,112 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="35.6719" style="44" customWidth="1"/>
-    <col min="2" max="2" width="30.8516" style="44" customWidth="1"/>
-    <col min="3" max="7" width="10.8516" style="44" customWidth="1"/>
-    <col min="8" max="16384" width="10.8516" style="44" customWidth="1"/>
+    <col min="1" max="1" width="35.6719" style="46" customWidth="1"/>
+    <col min="2" max="2" width="30.8516" style="46" customWidth="1"/>
+    <col min="3" max="7" width="10.8516" style="46" customWidth="1"/>
+    <col min="8" max="16384" width="10.8516" style="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
       <c r="A1" t="s" s="28">
-        <v>102</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
+        <v>125</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
       <c r="G1" t="s" s="28">
         <v>29</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="s" s="28">
-        <v>103</v>
-      </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
+        <v>126</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
       <c r="G2" t="s" s="28">
         <v>29</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="s" s="28">
-        <v>104</v>
-      </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
+        <v>127</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
       <c r="G3" t="s" s="28">
-        <v>105</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="s" s="28">
-        <v>106</v>
-      </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
+        <v>129</v>
+      </c>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
       <c r="G4" t="s" s="28">
-        <v>105</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="s" s="28">
-        <v>107</v>
-      </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
+        <v>130</v>
+      </c>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
       <c r="G5" t="s" s="28">
-        <v>108</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="s" s="28">
-        <v>109</v>
-      </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
+        <v>132</v>
+      </c>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
       <c r="G6" t="s" s="28">
-        <v>108</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="s" s="28">
-        <v>110</v>
-      </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
+        <v>133</v>
+      </c>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
       <c r="G7" t="s" s="28">
         <v>8</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="s" s="28">
-        <v>111</v>
-      </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
+        <v>134</v>
+      </c>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
       <c r="G8" t="s" s="28">
         <v>8</v>
       </c>
@@ -3256,16 +3880,16 @@
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
       <c r="F10" s="26"/>
-      <c r="G10" s="45"/>
+      <c r="G10" s="47"/>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="s" s="28">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s" s="29">
-        <v>113</v>
-      </c>
-      <c r="C11" s="46">
+        <v>136</v>
+      </c>
+      <c r="C11" s="48">
         <v>11295</v>
       </c>
       <c r="D11" t="s" s="30">
@@ -3283,7 +3907,7 @@
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="s" s="28">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="B12" s="35"/>
       <c r="C12" s="35"/>

--- a/RestAssuredTest/src/test/resources/data/testData.xlsx
+++ b/RestAssuredTest/src/test/resources/data/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AKandan1/git/Team2_TestingTurtles/RestAssuredTest/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB136BA-6D92-BD4A-9112-70533AC6449D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF3BD4D-3005-6044-A56D-34F39331DDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10480" yWindow="500" windowWidth="15960" windowHeight="18080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2120" yWindow="500" windowWidth="24320" windowHeight="18080" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export Summary" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="122">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -337,12 +337,84 @@
   <si>
     <t>Post_ByBatchName_Missingfield</t>
   </si>
+  <si>
+    <t>Post_User_Valid</t>
+  </si>
+  <si>
+    <t>Post_User_Existing</t>
+  </si>
+  <si>
+    <t>TestingTurtles_Existing_</t>
+  </si>
+  <si>
+    <t>Post_User_Missing_PhoneNumber</t>
+  </si>
+  <si>
+    <t>Post_User_Missing_FirstName</t>
+  </si>
+  <si>
+    <t>Post_User_Missing_LastName</t>
+  </si>
+  <si>
+    <t>Post_User_Missing_RoleId</t>
+  </si>
+  <si>
+    <t>Post_User_Missing_RoleStatus</t>
+  </si>
+  <si>
+    <t>Post_User_Missing_TimeZone</t>
+  </si>
+  <si>
+    <t>Post_User_Missing_VisaStatus</t>
+  </si>
+  <si>
+    <t>Put_User_Valid</t>
+  </si>
+  <si>
+    <t>Put_User_Missing_PhoneNumber</t>
+  </si>
+  <si>
+    <t>Put_User_Missing_LastName</t>
+  </si>
+  <si>
+    <t>Put_User_Missing_FirstName</t>
+  </si>
+  <si>
+    <t>Put_User_Missing_TimeZone</t>
+  </si>
+  <si>
+    <t>Put_User_Missing_VisaStatus</t>
+  </si>
+  <si>
+    <t>Put_User_Invalid</t>
+  </si>
+  <si>
+    <t>Put_UserRole_Valid</t>
+  </si>
+  <si>
+    <t>Put_UserRole_Invalid</t>
+  </si>
+  <si>
+    <t>Put_UserRole_Missing_RoleId</t>
+  </si>
+  <si>
+    <t>Put_UserRole_Missing_RoleStatus</t>
+  </si>
+  <si>
+    <t>Put_UserBatch_Valid</t>
+  </si>
+  <si>
+    <t>Put_UserBatch_Invalid</t>
+  </si>
+  <si>
+    <t>Put_UserBatch_Missing</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -392,6 +464,12 @@
       <sz val="12"/>
       <color indexed="18"/>
       <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -572,7 +650,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -697,6 +775,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1896,11 +1977,11 @@
     </row>
     <row r="3" spans="1:5" ht="50" customHeight="1">
       <c r="A3" s="8"/>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
       <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" ht="13.5" customHeight="1">
@@ -2089,8 +2170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -2546,9 +2627,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.83203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -2642,129 +2725,862 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="40"/>
-    </row>
-    <row r="4" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A4" s="35"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="34"/>
-    </row>
-    <row r="5" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A5" s="35"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="34"/>
-    </row>
-    <row r="6" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A6" s="35"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="34"/>
-    </row>
-    <row r="7" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A7" s="35"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="34"/>
-    </row>
-    <row r="8" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A8" s="35"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="34"/>
-    </row>
-    <row r="9" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A9" s="35"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="34"/>
-    </row>
-    <row r="10" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A10" s="37"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="39"/>
+    <row r="3" spans="1:13" ht="15" customHeight="1">
+      <c r="A3" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1">
+      <c r="A4" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="14" customHeight="1">
+      <c r="A5" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1">
+      <c r="A6" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="14" customHeight="1">
+      <c r="A7" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1">
+      <c r="A8" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="14" customHeight="1">
+      <c r="A9" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1">
+      <c r="A10" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" customHeight="1">
+      <c r="A11" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="M11" s="21"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1">
+      <c r="A12" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="M12" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="14" customHeight="1">
+      <c r="A13" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="M13" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1">
+      <c r="A14" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="M14" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="14" customHeight="1">
+      <c r="A15" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="K15" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="M15" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15" customHeight="1">
+      <c r="A16" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15" customHeight="1">
+      <c r="A17" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="K17" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="M17" s="21"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" customHeight="1">
+      <c r="A18" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="K18" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="M18" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15" customHeight="1">
+      <c r="A19" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+    </row>
+    <row r="20" spans="1:13" ht="15" customHeight="1">
+      <c r="A20" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="K20" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+    </row>
+    <row r="21" spans="1:13" ht="15" customHeight="1">
+      <c r="A21" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+    </row>
+    <row r="22" spans="1:13" ht="15" customHeight="1">
+      <c r="A22" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+    </row>
+    <row r="23" spans="1:13" ht="15" customHeight="1">
+      <c r="A23" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="K23" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+    </row>
+    <row r="24" spans="1:13" ht="15" customHeight="1">
+      <c r="A24" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="K24" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+    </row>
+    <row r="25" spans="1:13" ht="15" customHeight="1">
+      <c r="A25" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+    </row>
+    <row r="26" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A26" s="35"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="34"/>
+    </row>
+    <row r="27" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A27" s="35"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="34"/>
+    </row>
+    <row r="28" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A28" s="35"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="34"/>
+    </row>
+    <row r="29" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A29" s="37"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="39"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="H11" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="H2" r:id="rId2" xr:uid="{AE05242C-7982-C848-8D82-C1C09B67BDCE}"/>
+    <hyperlink ref="H3" r:id="rId3" xr:uid="{69955A08-3EEF-D247-95D2-683DD1B6DB92}"/>
+    <hyperlink ref="H4" r:id="rId4" xr:uid="{5330EE9C-FDAF-384B-903C-97DC278737ED}"/>
+    <hyperlink ref="H9" r:id="rId5" xr:uid="{9468AD1E-D636-CC4E-BEF1-D2D9043BF12F}"/>
+    <hyperlink ref="H6" r:id="rId6" xr:uid="{8A5AB9DF-7DC8-424B-9083-7542E1535F00}"/>
+    <hyperlink ref="H5" r:id="rId7" xr:uid="{1DC909FD-4BBA-F547-BC33-6448092E0549}"/>
+    <hyperlink ref="H8" r:id="rId8" xr:uid="{E71DAC57-0B62-0A40-8CB9-D9180DA0C6AE}"/>
+    <hyperlink ref="H7" r:id="rId9" xr:uid="{69263EA0-198D-9D43-8C2A-21CA3D99A3C1}"/>
+    <hyperlink ref="H10" r:id="rId10" xr:uid="{82CE606B-4B01-DE4D-A045-3FF3E1E0C667}"/>
+    <hyperlink ref="H17" r:id="rId11" xr:uid="{6BB6E532-CFD3-5F4A-9AEF-1820ABE06B24}"/>
+    <hyperlink ref="H12" r:id="rId12" xr:uid="{F251F2D0-DC21-D249-A226-82C601CA8E4C}"/>
+    <hyperlink ref="H14" r:id="rId13" xr:uid="{59C82BCC-FF24-CE40-8D07-C5129EF138E8}"/>
+    <hyperlink ref="H13" r:id="rId14" xr:uid="{0A42EB48-12BA-C649-A155-D526A1CF22FB}"/>
+    <hyperlink ref="H15" r:id="rId15" xr:uid="{EDB2BC45-4F44-D747-A6AD-ADCF992E5975}"/>
+    <hyperlink ref="H16" r:id="rId16" xr:uid="{B6D97533-65CA-A44B-8267-6803E60C539B}"/>
+    <hyperlink ref="H18" r:id="rId17" xr:uid="{3FFD109A-310C-024D-9107-FE1FB9C38AB9}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180599999999998" footer="0.51180599999999998"/>
   <pageSetup orientation="portrait"/>
@@ -2778,7 +3594,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.83203125" defaultRowHeight="15" customHeight="1"/>
   <cols>

--- a/RestAssuredTest/src/test/resources/data/testData.xlsx
+++ b/RestAssuredTest/src/test/resources/data/testData.xlsx
@@ -10,13 +10,14 @@
     <sheet name="program" sheetId="3" r:id="rId6"/>
     <sheet name="user" sheetId="4" r:id="rId7"/>
     <sheet name="assignment" sheetId="5" r:id="rId8"/>
-    <sheet name="hf" sheetId="6" r:id="rId9"/>
+    <sheet name="assignmentSubmit" sheetId="6" r:id="rId9"/>
+    <sheet name="hf" sheetId="7" r:id="rId10"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="169">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -92,6 +93,20 @@
     </r>
   </si>
   <si>
+    <t>assignmentSubmit</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>assignmentSubmit</t>
+    </r>
+  </si>
+  <si>
     <t>hf</t>
   </si>
   <si>
@@ -441,6 +456,93 @@
     <t>Put_Assignment_MissingGraderId</t>
   </si>
   <si>
+    <t>Post_Assignment_Submit</t>
+  </si>
+  <si>
+    <t>Created for Assignment Submit testing</t>
+  </si>
+  <si>
+    <t>subDesc</t>
+  </si>
+  <si>
+    <t>subComments</t>
+  </si>
+  <si>
+    <t>subDateTime</t>
+  </si>
+  <si>
+    <t>subPathAttach1</t>
+  </si>
+  <si>
+    <t>subPathAttach2</t>
+  </si>
+  <si>
+    <t>subPathAttach3</t>
+  </si>
+  <si>
+    <t>subPathAttach4</t>
+  </si>
+  <si>
+    <t>subPathAttach5</t>
+  </si>
+  <si>
+    <t>Post_AssignmentSubmit_Valid</t>
+  </si>
+  <si>
+    <t>SDET SQL Assignment submission</t>
+  </si>
+  <si>
+    <t>Testing for Assignment Submit</t>
+  </si>
+  <si>
+    <t>07-26-2023 05:29:27</t>
+  </si>
+  <si>
+    <t>Post_AssignmentSubmit_Repeated</t>
+  </si>
+  <si>
+    <t>Assignment with ID “ + assignmentId + “ already submitted by student “ + userId + “. Please visit 'Submissions' to resubmit assignment!</t>
+  </si>
+  <si>
+    <t>Post_AssignmentSubmit_MissingSubDesc</t>
+  </si>
+  <si>
+    <t>Submission description is mandatory</t>
+  </si>
+  <si>
+    <t>Post_AssignmentSubmit_MissingAssignmentId</t>
+  </si>
+  <si>
+    <t>Assignment ID is mandatory</t>
+  </si>
+  <si>
+    <t>Post_AssignmentSubmit_MissingUserId</t>
+  </si>
+  <si>
+    <t>User ID is mandatory</t>
+  </si>
+  <si>
+    <t>Post_AssignmentSubmit_MissingSubDateTime</t>
+  </si>
+  <si>
+    <t>Submission DateTime is mandatory</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>Delete_AssignmentSubmit_ValidId</t>
+  </si>
+  <si>
+    <t>Submission deleted successfully</t>
+  </si>
+  <si>
+    <t>Delete_AssignmentSubmit_DeletedId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submission not found with ID : </t>
+  </si>
+  <si>
     <t>Get_All_Valid</t>
   </si>
   <si>
@@ -487,7 +589,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -558,6 +660,11 @@
     <font>
       <sz val="12"/>
       <color indexed="20"/>
+      <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="21"/>
       <name val="Menlo Regular"/>
     </font>
   </fonts>
@@ -752,7 +859,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -894,10 +1001,19 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -927,6 +1043,7 @@
       <rgbColor rgb="ff2a00ff"/>
       <rgbColor rgb="ff0451a5"/>
       <rgbColor rgb="ff00cdb2"/>
+      <rgbColor rgb="ffd3d3d3"/>
       <rgbColor rgb="ffd3d3d3"/>
       <rgbColor rgb="ff098658"/>
     </indexedColors>
@@ -1993,7 +2110,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2193,6 +2310,26 @@
       </c>
       <c r="E20" s="21"/>
     </row>
+    <row r="21" ht="13" customHeight="1">
+      <c r="A21" s="7"/>
+      <c r="B21" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" ht="13" customHeight="1">
+      <c r="A22" s="20"/>
+      <c r="B22" s="4"/>
+      <c r="C22" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s" s="5">
+        <v>16</v>
+      </c>
+      <c r="E22" s="21"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B3:D3"/>
@@ -2205,12 +2342,14 @@
     <hyperlink ref="D14" location="'program'!R1C1" tooltip="" display="program"/>
     <hyperlink ref="D16" location="'user'!R1C1" tooltip="" display="user"/>
     <hyperlink ref="D18" location="'assignment'!R1C1" tooltip="" display="assignment"/>
-    <hyperlink ref="D20" location="'hf'!R1C1" tooltip="" display="hf"/>
+    <hyperlink ref="D20" location="'assignmentSubmit'!R1C1" tooltip="" display="assignmentSubmit"/>
+    <hyperlink ref="D22" location="'hf'!R1C1" tooltip="" display="hf"/>
     <hyperlink ref="D12" location="'batch'!R1C1" tooltip="" display="batch"/>
     <hyperlink ref="D14" location="'program'!R1C1" tooltip="" display="program"/>
     <hyperlink ref="D16" location="'user'!R1C1" tooltip="" display="user"/>
     <hyperlink ref="D18" location="'assignment'!R1C1" tooltip="" display="assignment"/>
-    <hyperlink ref="D20" location="'hf'!R1C1" tooltip="" display="hf"/>
+    <hyperlink ref="D20" location="'assignmentSubmit'!R1C1" tooltip="" display="assignmentSubmit"/>
+    <hyperlink ref="D22" location="'hf'!R1C1" tooltip="" display="hf"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -2242,51 +2381,51 @@
   <sheetData>
     <row r="1" ht="16" customHeight="1">
       <c r="A1" t="s" s="26">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s" s="26">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s" s="26">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s" s="26">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s" s="26">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s" s="27">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s" s="26">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s" s="26">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s" s="26">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="s" s="28">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="29">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s" s="30">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D2" s="31">
         <v>1</v>
       </c>
       <c r="E2" t="s" s="30">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s" s="27">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G2" s="32"/>
       <c r="H2" s="32"/>
@@ -2294,22 +2433,22 @@
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="s" s="28">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s" s="29">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s" s="30">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" s="31">
         <v>1</v>
       </c>
       <c r="E3" t="s" s="30">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s" s="27">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
@@ -2317,20 +2456,20 @@
     </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="s" s="28">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="29">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C4" s="33"/>
       <c r="D4" s="31">
         <v>1</v>
       </c>
       <c r="E4" t="s" s="30">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s" s="27">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
@@ -2338,20 +2477,20 @@
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="s" s="28">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B5" s="32"/>
       <c r="C5" t="s" s="30">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5" s="31">
         <v>1</v>
       </c>
       <c r="E5" t="s" s="30">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s" s="27">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G5" s="32"/>
       <c r="H5" s="32"/>
@@ -2359,20 +2498,20 @@
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="s" s="28">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="29">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s" s="30">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6" s="33"/>
       <c r="E6" t="s" s="30">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s" s="27">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G6" s="32"/>
       <c r="H6" s="32"/>
@@ -2380,22 +2519,22 @@
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="s" s="28">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s" s="29">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s" s="30">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7" s="31">
         <v>1</v>
       </c>
       <c r="E7" t="s" s="30">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s" s="27">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
@@ -2403,22 +2542,22 @@
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="s" s="28">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s" s="29">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s" s="30">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D8" s="31">
         <v>1</v>
       </c>
       <c r="E8" t="s" s="30">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s" s="27">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
@@ -2426,20 +2565,20 @@
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="s" s="28">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s" s="29">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C9" s="33"/>
       <c r="D9" s="31">
         <v>1</v>
       </c>
       <c r="E9" t="s" s="30">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s" s="27">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G9" s="32"/>
       <c r="H9" s="32"/>
@@ -2447,20 +2586,20 @@
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="s" s="28">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B10" s="32"/>
       <c r="C10" t="s" s="30">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10" s="31">
         <v>1</v>
       </c>
       <c r="E10" t="s" s="30">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s" s="27">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G10" s="32"/>
       <c r="H10" s="32"/>
@@ -2468,20 +2607,20 @@
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="s" s="28">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s" s="29">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s" s="30">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D11" s="33"/>
       <c r="E11" t="s" s="30">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s" s="27">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G11" s="32"/>
       <c r="H11" s="32"/>
@@ -2489,22 +2628,22 @@
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="s" s="28">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s" s="29">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s" s="30">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D12" s="31">
         <v>1</v>
       </c>
       <c r="E12" t="s" s="30">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s" s="27">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G12" s="32"/>
       <c r="H12" s="32"/>
@@ -2512,22 +2651,22 @@
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="s" s="28">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s" s="29">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s" s="30">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D13" s="31">
         <v>1</v>
       </c>
       <c r="E13" t="s" s="30">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F13" t="s" s="27">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G13" s="32"/>
       <c r="H13" s="32"/>
@@ -2535,19 +2674,19 @@
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="s" s="28">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s" s="28">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s" s="28">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D14" s="34">
         <v>2</v>
       </c>
       <c r="E14" t="s" s="28">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F14" s="35"/>
       <c r="G14" s="32"/>
@@ -2581,31 +2720,31 @@
   <sheetData>
     <row r="1" ht="16" customHeight="1">
       <c r="A1" t="s" s="26">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s" s="26">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s" s="26">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s" s="26">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E1" s="37"/>
     </row>
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="s" s="28">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s" s="28">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s" s="28">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s" s="28">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E2" s="38"/>
     </row>
@@ -2691,84 +2830,84 @@
   <sheetData>
     <row r="1" ht="16" customHeight="1">
       <c r="A1" t="s" s="26">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s" s="26">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s" s="26">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D1" t="s" s="26">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E1" t="s" s="26">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F1" t="s" s="26">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G1" t="s" s="26">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H1" t="s" s="26">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I1" t="s" s="26">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J1" t="s" s="26">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K1" t="s" s="26">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L1" t="s" s="26">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M1" t="s" s="26">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="s" s="28">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s" s="28">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s" s="28">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s" s="28">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s" s="28">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s" s="28">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G2" t="s" s="28">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H2" t="s" s="28">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I2" t="s" s="28">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J2" t="s" s="28">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K2" t="s" s="28">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L2" t="s" s="28">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M2" t="s" s="28">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" ht="13.5" customHeight="1">
@@ -2905,7 +3044,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2923,337 +3062,337 @@
   <sheetData>
     <row r="1" ht="16" customHeight="1">
       <c r="A1" t="s" s="26">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s" s="26">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s" s="26">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D1" t="s" s="26">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E1" t="s" s="26">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F1" t="s" s="26">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G1" t="s" s="26">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H1" t="s" s="26">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I1" t="s" s="26">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J1" t="s" s="26">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K1" t="s" s="26">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L1" t="s" s="26">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="s" s="28">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s" s="28">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s" s="28">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s" s="28">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s" s="42">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F2" t="s" s="28">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G2" t="s" s="28">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H2" t="s" s="28">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I2" t="s" s="28">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J2" t="s" s="28">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K2" s="28"/>
       <c r="L2" s="28"/>
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="s" s="28">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B3" s="28"/>
       <c r="C3" t="s" s="28">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s" s="28">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s" s="42">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F3" t="s" s="28">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G3" t="s" s="28">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H3" t="s" s="28">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I3" t="s" s="28">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J3" t="s" s="28">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K3" t="s" s="43">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L3" t="s" s="28">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="s" s="44">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B4" s="28"/>
       <c r="C4" t="s" s="28">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s" s="28">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E4" t="s" s="42">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s" s="28">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G4" t="s" s="28">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s" s="28">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I4" t="s" s="28">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J4" t="s" s="28">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K4" t="s" s="43">
+        <v>98</v>
+      </c>
+      <c r="L4" t="s" s="28">
         <v>96</v>
-      </c>
-      <c r="L4" t="s" s="28">
-        <v>94</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="s" s="44">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s" s="28">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s" s="28">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s" s="28">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E5" s="42"/>
       <c r="F5" t="s" s="28">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G5" t="s" s="28">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H5" t="s" s="28">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I5" t="s" s="28">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J5" t="s" s="28">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K5" t="s" s="43">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s" s="28">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="s" s="44">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s" s="28">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" t="s" s="28">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E6" t="s" s="42">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F6" t="s" s="28">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s" s="28">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H6" t="s" s="28">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I6" t="s" s="28">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J6" t="s" s="28">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K6" t="s" s="43">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L6" t="s" s="28">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="s" s="44">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s" s="28">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s" s="28">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s" s="28">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E7" t="s" s="42">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F7" t="s" s="28">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s" s="28">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H7" t="s" s="28">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I7" t="s" s="28">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s" s="28">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s" s="43">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L7" t="s" s="28">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="s" s="44">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B8" t="s" s="28">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s" s="28">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s" s="28">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E8" t="s" s="42">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F8" t="s" s="28">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s" s="28">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H8" t="s" s="28">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I8" t="s" s="28">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J8" t="s" s="28">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s" s="43">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L8" t="s" s="28">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="s" s="42">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B9" t="s" s="28">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s" s="28">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s" s="28">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E9" t="s" s="42">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F9" t="s" s="28">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G9" t="s" s="28">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H9" t="s" s="28">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I9" t="s" s="28">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J9" t="s" s="28">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K9" t="s" s="43">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L9" t="s" s="28">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="s" s="28">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
@@ -3265,15 +3404,15 @@
       <c r="I10" s="28"/>
       <c r="J10" s="28"/>
       <c r="K10" t="s" s="43">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s" s="28">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="s" s="28">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
@@ -3285,15 +3424,15 @@
       <c r="I11" s="28"/>
       <c r="J11" s="28"/>
       <c r="K11" t="s" s="43">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L11" t="s" s="28">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="s" s="28">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
@@ -3305,15 +3444,15 @@
       <c r="I12" s="28"/>
       <c r="J12" s="28"/>
       <c r="K12" t="s" s="43">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L12" t="s" s="28">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="s" s="28">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
@@ -3325,333 +3464,353 @@
       <c r="I13" s="28"/>
       <c r="J13" s="28"/>
       <c r="K13" t="s" s="43">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L13" t="s" s="28">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="s" s="28">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B14" t="s" s="28">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s" s="28">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D14" t="s" s="28">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E14" t="s" s="42">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F14" t="s" s="28">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G14" t="s" s="28">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H14" t="s" s="28">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I14" t="s" s="28">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J14" t="s" s="28">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K14" s="28"/>
       <c r="L14" s="28"/>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="s" s="28">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B15" t="s" s="28">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s" s="28">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s" s="28">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E15" t="s" s="42">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F15" t="s" s="28">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G15" t="s" s="28">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H15" t="s" s="28">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I15" t="s" s="28">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J15" t="s" s="28">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K15" t="s" s="43">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L15" t="s" s="28">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="s" s="44">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B16" s="28"/>
       <c r="C16" t="s" s="28">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s" s="28">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E16" t="s" s="42">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F16" t="s" s="28">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G16" t="s" s="28">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H16" t="s" s="28">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I16" t="s" s="28">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J16" t="s" s="28">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K16" t="s" s="43">
+        <v>98</v>
+      </c>
+      <c r="L16" t="s" s="28">
         <v>96</v>
-      </c>
-      <c r="L16" t="s" s="28">
-        <v>94</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="s" s="44">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B17" t="s" s="28">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s" s="28">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s" s="28">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E17" s="42"/>
       <c r="F17" t="s" s="28">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s" s="28">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H17" t="s" s="28">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I17" t="s" s="28">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J17" t="s" s="28">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K17" t="s" s="43">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L17" t="s" s="28">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="s" s="44">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B18" t="s" s="28">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C18" s="28"/>
       <c r="D18" t="s" s="28">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E18" t="s" s="42">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F18" t="s" s="28">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G18" t="s" s="28">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H18" t="s" s="28">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I18" t="s" s="28">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J18" t="s" s="28">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K18" t="s" s="43">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L18" t="s" s="28">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="s" s="44">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B19" t="s" s="28">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C19" t="s" s="28">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D19" t="s" s="28">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E19" t="s" s="42">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F19" t="s" s="28">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G19" t="s" s="28">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H19" t="s" s="28">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I19" t="s" s="28">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J19" t="s" s="28">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K19" t="s" s="43">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L19" t="s" s="28">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="s" s="44">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B20" t="s" s="28">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s" s="28">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D20" t="s" s="28">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E20" t="s" s="42">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F20" t="s" s="28">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G20" t="s" s="28">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H20" t="s" s="28">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I20" t="s" s="28">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J20" t="s" s="28">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K20" t="s" s="43">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L20" t="s" s="28">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="s" s="42">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B21" t="s" s="28">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s" s="28">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D21" t="s" s="28">
+        <v>87</v>
+      </c>
+      <c r="E21" t="s" s="42">
+        <v>88</v>
+      </c>
+      <c r="F21" t="s" s="28">
+        <v>89</v>
+      </c>
+      <c r="G21" t="s" s="28">
+        <v>90</v>
+      </c>
+      <c r="H21" t="s" s="28">
+        <v>91</v>
+      </c>
+      <c r="I21" t="s" s="28">
+        <v>92</v>
+      </c>
+      <c r="J21" t="s" s="28">
+        <v>93</v>
+      </c>
+      <c r="K21" t="s" s="43">
+        <v>108</v>
+      </c>
+      <c r="L21" t="s" s="28">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="s" s="28">
+        <v>127</v>
+      </c>
+      <c r="B22" t="s" s="28">
         <v>85</v>
       </c>
-      <c r="E21" t="s" s="42">
+      <c r="C22" t="s" s="28">
         <v>86</v>
       </c>
-      <c r="F21" t="s" s="28">
-        <v>87</v>
-      </c>
-      <c r="G21" t="s" s="28">
+      <c r="D22" t="s" s="28">
+        <v>128</v>
+      </c>
+      <c r="E22" t="s" s="43">
         <v>88</v>
       </c>
-      <c r="H21" t="s" s="28">
+      <c r="F22" t="s" s="28">
         <v>89</v>
       </c>
-      <c r="I21" t="s" s="28">
+      <c r="G22" t="s" s="28">
         <v>90</v>
       </c>
-      <c r="J21" t="s" s="28">
+      <c r="H22" t="s" s="28">
         <v>91</v>
       </c>
-      <c r="K21" t="s" s="43">
-        <v>106</v>
-      </c>
-      <c r="L21" t="s" s="28">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" ht="13.5" customHeight="1">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
+      <c r="I22" t="s" s="28">
+        <v>92</v>
+      </c>
+      <c r="J22" t="s" s="28">
+        <v>93</v>
+      </c>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
     </row>
     <row r="23" ht="13.5" customHeight="1">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
     </row>
     <row r="24" ht="13.5" customHeight="1">
       <c r="A24" s="10"/>
@@ -3724,18 +3883,32 @@
       <c r="L28" s="38"/>
     </row>
     <row r="29" ht="13.5" customHeight="1">
-      <c r="A29" s="20"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="45"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+    </row>
+    <row r="30" ht="13.5" customHeight="1">
+      <c r="A30" s="20"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
@@ -3748,118 +3921,523 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="33.6719" style="46" customWidth="1"/>
+    <col min="2" max="2" width="38.5" style="46" customWidth="1"/>
+    <col min="3" max="4" width="21.5" style="46" customWidth="1"/>
+    <col min="5" max="9" width="18" style="46" customWidth="1"/>
+    <col min="10" max="10" width="27.6719" style="46" customWidth="1"/>
+    <col min="11" max="11" width="18" style="46" customWidth="1"/>
+    <col min="12" max="16384" width="9.85156" style="46" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16" customHeight="1">
+      <c r="A1" t="s" s="26">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s" s="26">
+        <v>129</v>
+      </c>
+      <c r="C1" t="s" s="47">
+        <v>130</v>
+      </c>
+      <c r="D1" t="s" s="47">
+        <v>131</v>
+      </c>
+      <c r="E1" t="s" s="26">
+        <v>132</v>
+      </c>
+      <c r="F1" t="s" s="26">
+        <v>133</v>
+      </c>
+      <c r="G1" t="s" s="26">
+        <v>134</v>
+      </c>
+      <c r="H1" t="s" s="26">
+        <v>135</v>
+      </c>
+      <c r="I1" t="s" s="26">
+        <v>136</v>
+      </c>
+      <c r="J1" t="s" s="26">
+        <v>82</v>
+      </c>
+      <c r="K1" t="s" s="26">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" t="s" s="28">
+        <v>137</v>
+      </c>
+      <c r="B2" t="s" s="28">
+        <v>138</v>
+      </c>
+      <c r="C2" t="s" s="28">
+        <v>139</v>
+      </c>
+      <c r="D2" t="s" s="43">
+        <v>140</v>
+      </c>
+      <c r="E2" t="s" s="28">
+        <v>89</v>
+      </c>
+      <c r="F2" t="s" s="28">
+        <v>90</v>
+      </c>
+      <c r="G2" t="s" s="28">
+        <v>91</v>
+      </c>
+      <c r="H2" t="s" s="28">
+        <v>92</v>
+      </c>
+      <c r="I2" t="s" s="28">
+        <v>93</v>
+      </c>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="s" s="28">
+        <v>141</v>
+      </c>
+      <c r="B3" t="s" s="28">
+        <v>138</v>
+      </c>
+      <c r="C3" t="s" s="28">
+        <v>139</v>
+      </c>
+      <c r="D3" t="s" s="43">
+        <v>140</v>
+      </c>
+      <c r="E3" t="s" s="28">
+        <v>89</v>
+      </c>
+      <c r="F3" t="s" s="28">
+        <v>90</v>
+      </c>
+      <c r="G3" t="s" s="28">
+        <v>91</v>
+      </c>
+      <c r="H3" t="s" s="28">
+        <v>92</v>
+      </c>
+      <c r="I3" t="s" s="28">
+        <v>93</v>
+      </c>
+      <c r="J3" t="s" s="28">
+        <v>142</v>
+      </c>
+      <c r="K3" t="s" s="28">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="s" s="28">
+        <v>143</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" t="s" s="28">
+        <v>139</v>
+      </c>
+      <c r="D4" t="s" s="43">
+        <v>140</v>
+      </c>
+      <c r="E4" t="s" s="28">
+        <v>89</v>
+      </c>
+      <c r="F4" t="s" s="28">
+        <v>90</v>
+      </c>
+      <c r="G4" t="s" s="28">
+        <v>91</v>
+      </c>
+      <c r="H4" t="s" s="28">
+        <v>92</v>
+      </c>
+      <c r="I4" t="s" s="28">
+        <v>93</v>
+      </c>
+      <c r="J4" t="s" s="28">
+        <v>144</v>
+      </c>
+      <c r="K4" t="s" s="28">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="s" s="28">
+        <v>145</v>
+      </c>
+      <c r="B5" t="s" s="28">
+        <v>138</v>
+      </c>
+      <c r="C5" t="s" s="28">
+        <v>139</v>
+      </c>
+      <c r="D5" t="s" s="43">
+        <v>140</v>
+      </c>
+      <c r="E5" t="s" s="28">
+        <v>89</v>
+      </c>
+      <c r="F5" t="s" s="28">
+        <v>90</v>
+      </c>
+      <c r="G5" t="s" s="28">
+        <v>91</v>
+      </c>
+      <c r="H5" t="s" s="28">
+        <v>92</v>
+      </c>
+      <c r="I5" t="s" s="28">
+        <v>93</v>
+      </c>
+      <c r="J5" t="s" s="28">
+        <v>146</v>
+      </c>
+      <c r="K5" t="s" s="28">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="s" s="28">
+        <v>147</v>
+      </c>
+      <c r="B6" t="s" s="28">
+        <v>138</v>
+      </c>
+      <c r="C6" t="s" s="28">
+        <v>139</v>
+      </c>
+      <c r="D6" t="s" s="43">
+        <v>140</v>
+      </c>
+      <c r="E6" t="s" s="28">
+        <v>89</v>
+      </c>
+      <c r="F6" t="s" s="28">
+        <v>90</v>
+      </c>
+      <c r="G6" t="s" s="28">
+        <v>91</v>
+      </c>
+      <c r="H6" t="s" s="28">
+        <v>92</v>
+      </c>
+      <c r="I6" t="s" s="28">
+        <v>93</v>
+      </c>
+      <c r="J6" t="s" s="28">
+        <v>148</v>
+      </c>
+      <c r="K6" t="s" s="28">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="s" s="28">
+        <v>149</v>
+      </c>
+      <c r="B7" t="s" s="28">
+        <v>138</v>
+      </c>
+      <c r="C7" t="s" s="28">
+        <v>139</v>
+      </c>
+      <c r="D7" s="43"/>
+      <c r="E7" t="s" s="28">
+        <v>89</v>
+      </c>
+      <c r="F7" t="s" s="28">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s" s="28">
+        <v>91</v>
+      </c>
+      <c r="H7" t="s" s="28">
+        <v>92</v>
+      </c>
+      <c r="I7" t="s" s="28">
+        <v>93</v>
+      </c>
+      <c r="J7" t="s" s="28">
+        <v>150</v>
+      </c>
+      <c r="K7" t="s" s="28">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="s" s="48">
+        <v>152</v>
+      </c>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" t="s" s="28">
+        <v>153</v>
+      </c>
+      <c r="K8" t="s" s="28">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="s" s="48">
+        <v>154</v>
+      </c>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" t="s" s="28">
+        <v>155</v>
+      </c>
+      <c r="K9" t="s" s="28">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" ht="13.5" customHeight="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+    </row>
+    <row r="11" ht="13.5" customHeight="1">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+    </row>
+    <row r="12" ht="13.5" customHeight="1">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+    </row>
+    <row r="13" ht="13.5" customHeight="1">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+    </row>
+    <row r="14" ht="13.5" customHeight="1">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+    </row>
+    <row r="15" ht="13.5" customHeight="1">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+    </row>
+    <row r="16" ht="13.5" customHeight="1">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+    </row>
+    <row r="17" ht="13.5" customHeight="1">
+      <c r="A17" s="20"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="35.6719" style="46" customWidth="1"/>
-    <col min="2" max="2" width="30.8516" style="46" customWidth="1"/>
-    <col min="3" max="7" width="10.8516" style="46" customWidth="1"/>
-    <col min="8" max="16384" width="10.8516" style="46" customWidth="1"/>
+    <col min="1" max="1" width="35.6719" style="49" customWidth="1"/>
+    <col min="2" max="2" width="30.8516" style="49" customWidth="1"/>
+    <col min="3" max="7" width="10.8516" style="49" customWidth="1"/>
+    <col min="8" max="16384" width="10.8516" style="49" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
       <c r="A1" t="s" s="28">
-        <v>125</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
+        <v>156</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
       <c r="G1" t="s" s="28">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="s" s="28">
-        <v>126</v>
-      </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+        <v>157</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
       <c r="G2" t="s" s="28">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="s" s="28">
-        <v>127</v>
-      </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
+        <v>158</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
       <c r="G3" t="s" s="28">
-        <v>128</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="s" s="28">
-        <v>129</v>
-      </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
+        <v>160</v>
+      </c>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
       <c r="G4" t="s" s="28">
-        <v>128</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="s" s="28">
-        <v>130</v>
-      </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
+        <v>161</v>
+      </c>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
       <c r="G5" t="s" s="28">
-        <v>131</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="s" s="28">
-        <v>132</v>
-      </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
+        <v>163</v>
+      </c>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
       <c r="G6" t="s" s="28">
-        <v>131</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="s" s="28">
-        <v>133</v>
-      </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
+        <v>164</v>
+      </c>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
       <c r="G7" t="s" s="28">
         <v>8</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="s" s="28">
-        <v>134</v>
-      </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
+        <v>165</v>
+      </c>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
       <c r="G8" t="s" s="28">
         <v>8</v>
       </c>
@@ -3880,34 +4458,34 @@
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
       <c r="F10" s="26"/>
-      <c r="G10" s="47"/>
+      <c r="G10" s="50"/>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="s" s="28">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="B11" t="s" s="29">
-        <v>136</v>
-      </c>
-      <c r="C11" s="48">
+        <v>167</v>
+      </c>
+      <c r="C11" s="51">
         <v>11295</v>
       </c>
       <c r="D11" t="s" s="30">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E11" s="31">
         <v>1</v>
       </c>
       <c r="F11" t="s" s="30">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s" s="28">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="s" s="28">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="B12" s="35"/>
       <c r="C12" s="35"/>
@@ -3915,7 +4493,7 @@
       <c r="E12" s="35"/>
       <c r="F12" s="35"/>
       <c r="G12" t="s" s="28">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/RestAssuredTest/src/test/resources/data/testData.xlsx
+++ b/RestAssuredTest/src/test/resources/data/testData.xlsx
@@ -11,14 +11,17 @@
     <sheet name="user" sheetId="4" r:id="rId7"/>
     <sheet name="assignment" sheetId="5" r:id="rId8"/>
     <sheet name="assignmentSubmit" sheetId="6" r:id="rId9"/>
-    <sheet name="hf" sheetId="7" r:id="rId10"/>
-    <sheet name="ProgramModule" sheetId="8" r:id="rId11"/>
+    <sheet name="assignmentid" sheetId="7" r:id="rId10"/>
+    <sheet name="batchid" sheetId="8" r:id="rId11"/>
+    <sheet name="Studentid" sheetId="9" r:id="rId12"/>
+    <sheet name="hf" sheetId="10" r:id="rId13"/>
+    <sheet name="ProgramModule" sheetId="11" r:id="rId14"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="255">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -672,6 +675,57 @@
     <t xml:space="preserve">Submission not found with ID : </t>
   </si>
   <si>
+    <t>assignmentid</t>
+  </si>
+  <si>
+    <t>AssignmentId</t>
+  </si>
+  <si>
+    <t>Get_Valid_assignmentid</t>
+  </si>
+  <si>
+    <t>3276</t>
+  </si>
+  <si>
+    <t>Get_InValid_assignmentid</t>
+  </si>
+  <si>
+    <t>1452</t>
+  </si>
+  <si>
+    <t>batchid</t>
+  </si>
+  <si>
+    <t>batchID</t>
+  </si>
+  <si>
+    <t>Get_Valid_batchId</t>
+  </si>
+  <si>
+    <t>Get_InValid_batchId</t>
+  </si>
+  <si>
+    <t>Get_Valid_batchIdbysubmission</t>
+  </si>
+  <si>
+    <t>Studentid</t>
+  </si>
+  <si>
+    <t>StudentID</t>
+  </si>
+  <si>
+    <t>Get_Valid_StudentId</t>
+  </si>
+  <si>
+    <t>U8158</t>
+  </si>
+  <si>
+    <t>Get_InValid_StudentId</t>
+  </si>
+  <si>
+    <t>U7777</t>
+  </si>
+  <si>
     <t>Get_All_Valid</t>
   </si>
   <si>
@@ -802,10 +856,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="59" formatCode="0E+00"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -889,8 +944,13 @@
       <name val="Menlo Regular"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color indexed="21"/>
+      <name val="Times Roman"/>
+    </font>
+    <font>
       <sz val="12"/>
-      <color indexed="21"/>
+      <color indexed="22"/>
       <name val="Menlo Regular"/>
     </font>
     <font>
@@ -904,7 +964,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -943,7 +1003,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
+        <fgColor indexed="13"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="23"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -1127,7 +1193,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1293,46 +1359,79 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="7" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="16" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="18" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="18" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="18" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="7" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="18" fillId="8" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="18" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="19" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="18" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1367,6 +1466,7 @@
       <rgbColor rgb="ff00cdb2"/>
       <rgbColor rgb="ffd3d3d3"/>
       <rgbColor rgb="ffefefef"/>
+      <rgbColor rgb="ff222222"/>
       <rgbColor rgb="ff098658"/>
       <rgbColor rgb="ffe8f2fe"/>
     </indexedColors>
@@ -2636,7 +2736,7 @@
     <row r="21" ht="13" customHeight="1">
       <c r="A21" s="7"/>
       <c r="B21" t="s" s="3">
-        <v>16</v>
+        <v>196</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -2649,14 +2749,14 @@
         <v>5</v>
       </c>
       <c r="D22" t="s" s="5">
-        <v>16</v>
+        <v>196</v>
       </c>
       <c r="E22" s="21"/>
     </row>
     <row r="23" ht="13" customHeight="1">
       <c r="A23" s="7"/>
       <c r="B23" t="s" s="3">
-        <v>18</v>
+        <v>202</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -2669,9 +2769,57 @@
         <v>5</v>
       </c>
       <c r="D24" t="s" s="5">
+        <v>202</v>
+      </c>
+      <c r="E24" s="21"/>
+    </row>
+    <row r="25">
+      <c r="B25" t="s" s="3">
+        <v>207</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="4"/>
+      <c r="C26" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s" s="5">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="4"/>
+      <c r="C28" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="s" s="3">
         <v>18</v>
       </c>
-      <c r="E24" s="21"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="4"/>
+      <c r="C30" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s" s="5">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2693,10 +2841,413 @@
     <hyperlink ref="D16" location="'user'!R1C1" tooltip="" display="user"/>
     <hyperlink ref="D18" location="'assignment'!R1C1" tooltip="" display="assignment"/>
     <hyperlink ref="D20" location="'assignmentSubmit'!R1C1" tooltip="" display="assignmentSubmit"/>
-    <hyperlink ref="D22" location="'hf'!R1C1" tooltip="" display="hf"/>
-    <hyperlink ref="D24" location="'ProgramModule'!R1C1" tooltip="" display="ProgramModule"/>
+    <hyperlink ref="D22" location="'assignmentid'!R1C1" tooltip="" display="assignmentid"/>
+    <hyperlink ref="D24" location="'batchid'!R1C1" tooltip="" display="batchid"/>
+    <hyperlink ref="D26" location="'Studentid'!R1C1" tooltip="" display="Studentid"/>
+    <hyperlink ref="D28" location="'hf'!R1C1" tooltip="" display="hf"/>
+    <hyperlink ref="D30" location="'ProgramModule'!R1C1" tooltip="" display="ProgramModule"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="35.6719" style="65" customWidth="1"/>
+    <col min="2" max="2" width="30.8516" style="65" customWidth="1"/>
+    <col min="3" max="7" width="10.8516" style="65" customWidth="1"/>
+    <col min="8" max="16384" width="10.8516" style="65" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" t="s" s="28">
+        <v>213</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" t="s" s="28">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" t="s" s="28">
+        <v>214</v>
+      </c>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" t="s" s="28">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="s" s="28">
+        <v>215</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" t="s" s="28">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="s" s="28">
+        <v>217</v>
+      </c>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" t="s" s="28">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="s" s="28">
+        <v>218</v>
+      </c>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" t="s" s="28">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="s" s="28">
+        <v>220</v>
+      </c>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" t="s" s="28">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="s" s="28">
+        <v>221</v>
+      </c>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" t="s" s="28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="s" s="28">
+        <v>222</v>
+      </c>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" t="s" s="28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" ht="13.5" customHeight="1">
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+    </row>
+    <row r="10" ht="15.95" customHeight="1">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="66"/>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="s" s="28">
+        <v>223</v>
+      </c>
+      <c r="B11" t="s" s="29">
+        <v>224</v>
+      </c>
+      <c r="C11" s="67">
+        <v>11295</v>
+      </c>
+      <c r="D11" t="s" s="30">
+        <v>31</v>
+      </c>
+      <c r="E11" s="31">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s" s="30">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s" s="28">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="s" s="28">
+        <v>225</v>
+      </c>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" t="s" s="28">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="6" width="8.85156" style="68" customWidth="1"/>
+    <col min="7" max="16384" width="8.85156" style="68" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.7" customHeight="1">
+      <c r="A1" t="s" s="69">
+        <v>226</v>
+      </c>
+      <c r="B1" t="s" s="70">
+        <v>227</v>
+      </c>
+      <c r="C1" t="s" s="69">
+        <v>228</v>
+      </c>
+      <c r="D1" t="s" s="69">
+        <v>229</v>
+      </c>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+    </row>
+    <row r="2" ht="14.7" customHeight="1">
+      <c r="A2" t="s" s="72">
+        <v>230</v>
+      </c>
+      <c r="B2" t="s" s="73">
+        <v>231</v>
+      </c>
+      <c r="C2" t="s" s="74">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s" s="69">
+        <v>232</v>
+      </c>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+    </row>
+    <row r="3" ht="14.7" customHeight="1">
+      <c r="A3" t="s" s="72">
+        <v>233</v>
+      </c>
+      <c r="B3" t="s" s="73">
+        <v>231</v>
+      </c>
+      <c r="C3" t="s" s="74">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s" s="69">
+        <v>234</v>
+      </c>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+    </row>
+    <row r="4" ht="14.7" customHeight="1">
+      <c r="A4" t="s" s="69">
+        <v>235</v>
+      </c>
+      <c r="B4" s="76"/>
+      <c r="C4" t="s" s="69">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s" s="69">
+        <v>236</v>
+      </c>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+    </row>
+    <row r="5" ht="14.7" customHeight="1">
+      <c r="A5" t="s" s="69">
+        <v>237</v>
+      </c>
+      <c r="B5" s="71"/>
+      <c r="C5" t="s" s="69">
+        <v>78</v>
+      </c>
+      <c r="D5" t="s" s="69">
+        <v>236</v>
+      </c>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+    </row>
+    <row r="6" ht="14.7" customHeight="1">
+      <c r="A6" t="s" s="69">
+        <v>238</v>
+      </c>
+      <c r="B6" s="71"/>
+      <c r="C6" t="s" s="69">
+        <v>239</v>
+      </c>
+      <c r="D6" t="s" s="70">
+        <v>240</v>
+      </c>
+      <c r="E6" s="75"/>
+      <c r="F6" s="71"/>
+    </row>
+    <row r="7" ht="14.7" customHeight="1">
+      <c r="A7" t="s" s="69">
+        <v>241</v>
+      </c>
+      <c r="B7" t="s" s="69">
+        <v>242</v>
+      </c>
+      <c r="C7" t="s" s="72">
+        <v>239</v>
+      </c>
+      <c r="D7" t="s" s="77">
+        <v>243</v>
+      </c>
+      <c r="E7" s="75"/>
+      <c r="F7" s="71"/>
+    </row>
+    <row r="8" ht="14.7" customHeight="1">
+      <c r="A8" t="s" s="69">
+        <v>244</v>
+      </c>
+      <c r="B8" s="78"/>
+      <c r="C8" t="s" s="69">
+        <v>239</v>
+      </c>
+      <c r="D8" t="s" s="79">
+        <v>245</v>
+      </c>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+    </row>
+    <row r="9" ht="14.7" customHeight="1">
+      <c r="A9" t="s" s="72">
+        <v>246</v>
+      </c>
+      <c r="B9" t="s" s="73">
+        <v>247</v>
+      </c>
+      <c r="C9" t="s" s="74">
+        <v>239</v>
+      </c>
+      <c r="D9" t="s" s="69">
+        <v>248</v>
+      </c>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+    </row>
+    <row r="10" ht="14.7" customHeight="1">
+      <c r="A10" t="s" s="69">
+        <v>249</v>
+      </c>
+      <c r="B10" s="80"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="75"/>
+    </row>
+    <row r="11" ht="14.7" customHeight="1">
+      <c r="A11" t="s" s="69">
+        <v>250</v>
+      </c>
+      <c r="B11" s="71"/>
+      <c r="C11" t="s" s="69">
+        <v>239</v>
+      </c>
+      <c r="D11" t="s" s="69">
+        <v>251</v>
+      </c>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+    </row>
+    <row r="12" ht="14.7" customHeight="1">
+      <c r="A12" t="s" s="69">
+        <v>252</v>
+      </c>
+      <c r="B12" s="71"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+    </row>
+    <row r="13" ht="14.7" customHeight="1">
+      <c r="A13" t="s" s="69">
+        <v>253</v>
+      </c>
+      <c r="B13" t="s" s="69">
+        <v>254</v>
+      </c>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+    </row>
+    <row r="14" ht="14.7" customHeight="1">
+      <c r="A14" s="71"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+    </row>
+    <row r="15" ht="14.7" customHeight="1">
+      <c r="A15" s="71"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
@@ -5538,178 +6089,43 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="35.6719" style="54" customWidth="1"/>
-    <col min="2" max="2" width="30.8516" style="54" customWidth="1"/>
-    <col min="3" max="7" width="10.8516" style="54" customWidth="1"/>
-    <col min="8" max="16384" width="10.8516" style="54" customWidth="1"/>
+    <col min="1" max="1" width="33.6719" style="54" customWidth="1"/>
+    <col min="2" max="2" width="38.5" style="54" customWidth="1"/>
+    <col min="3" max="16384" width="9.85156" style="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="28">
-        <v>196</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" t="s" s="28">
-        <v>33</v>
+    <row r="1" ht="15.95" customHeight="1">
+      <c r="A1" t="s" s="26">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s" s="26">
+        <v>197</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="s" s="28">
-        <v>197</v>
-      </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" t="s" s="28">
-        <v>33</v>
+        <v>198</v>
+      </c>
+      <c r="B2" t="s" s="28">
+        <v>199</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="s" s="28">
-        <v>198</v>
-      </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" t="s" s="28">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="s" s="28">
         <v>200</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" t="s" s="28">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="28">
+      <c r="B3" t="s" s="28">
         <v>201</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" t="s" s="28">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="28">
-        <v>203</v>
-      </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" t="s" s="28">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="s" s="28">
-        <v>204</v>
-      </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" t="s" s="28">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="s" s="28">
-        <v>205</v>
-      </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" t="s" s="28">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" ht="13.5" customHeight="1">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-    </row>
-    <row r="10" ht="15.95" customHeight="1">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="55"/>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="s" s="28">
-        <v>206</v>
-      </c>
-      <c r="B11" t="s" s="29">
-        <v>207</v>
-      </c>
-      <c r="C11" s="56">
-        <v>11295</v>
-      </c>
-      <c r="D11" t="s" s="30">
-        <v>31</v>
-      </c>
-      <c r="E11" s="31">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s" s="30">
-        <v>32</v>
-      </c>
-      <c r="G11" t="s" s="28">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="s" s="28">
-        <v>208</v>
-      </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" t="s" s="28">
-        <v>33</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
@@ -5719,216 +6135,105 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="6" width="8.85156" style="57" customWidth="1"/>
-    <col min="7" max="16384" width="8.85156" style="57" customWidth="1"/>
+    <col min="1" max="1" width="33.6719" style="55" customWidth="1"/>
+    <col min="2" max="2" width="38.5" style="55" customWidth="1"/>
+    <col min="3" max="16384" width="9.85156" style="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.7" customHeight="1">
-      <c r="A1" t="s" s="58">
+    <row r="1" ht="15.95" customHeight="1">
+      <c r="A1" t="s" s="56">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s" s="57">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" t="s" s="58">
+        <v>204</v>
+      </c>
+      <c r="B2" s="59">
+        <v>6463</v>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="s" s="58">
+        <v>205</v>
+      </c>
+      <c r="B3" s="59">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="s" s="58">
+        <v>206</v>
+      </c>
+      <c r="B4" s="59">
+        <v>6463</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="s" s="60">
+        <v>206</v>
+      </c>
+      <c r="B5" s="61">
+        <v>124786000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="33.6719" style="62" customWidth="1"/>
+    <col min="2" max="2" width="38.5" style="62" customWidth="1"/>
+    <col min="3" max="16384" width="9.85156" style="62" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.95" customHeight="1">
+      <c r="A1" t="s" s="56">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s" s="57">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" t="s" s="58">
         <v>209</v>
       </c>
-      <c r="B1" t="s" s="59">
+      <c r="B2" t="s" s="63">
         <v>210</v>
       </c>
-      <c r="C1" t="s" s="58">
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="s" s="60">
         <v>211</v>
       </c>
-      <c r="D1" t="s" s="58">
+      <c r="B3" t="s" s="64">
         <v>212</v>
       </c>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-    </row>
-    <row r="2" ht="14.7" customHeight="1">
-      <c r="A2" t="s" s="61">
-        <v>213</v>
-      </c>
-      <c r="B2" t="s" s="62">
-        <v>214</v>
-      </c>
-      <c r="C2" t="s" s="63">
-        <v>31</v>
-      </c>
-      <c r="D2" t="s" s="58">
-        <v>215</v>
-      </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-    </row>
-    <row r="3" ht="14.7" customHeight="1">
-      <c r="A3" t="s" s="61">
-        <v>216</v>
-      </c>
-      <c r="B3" t="s" s="62">
-        <v>214</v>
-      </c>
-      <c r="C3" t="s" s="63">
-        <v>31</v>
-      </c>
-      <c r="D3" t="s" s="58">
-        <v>217</v>
-      </c>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-    </row>
-    <row r="4" ht="14.7" customHeight="1">
-      <c r="A4" t="s" s="58">
-        <v>218</v>
-      </c>
-      <c r="B4" s="65"/>
-      <c r="C4" t="s" s="58">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s" s="58">
-        <v>219</v>
-      </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-    </row>
-    <row r="5" ht="14.7" customHeight="1">
-      <c r="A5" t="s" s="58">
-        <v>220</v>
-      </c>
-      <c r="B5" s="60"/>
-      <c r="C5" t="s" s="58">
-        <v>78</v>
-      </c>
-      <c r="D5" t="s" s="58">
-        <v>219</v>
-      </c>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-    </row>
-    <row r="6" ht="14.7" customHeight="1">
-      <c r="A6" t="s" s="58">
-        <v>221</v>
-      </c>
-      <c r="B6" s="60"/>
-      <c r="C6" t="s" s="58">
-        <v>222</v>
-      </c>
-      <c r="D6" t="s" s="59">
-        <v>223</v>
-      </c>
-      <c r="E6" s="64"/>
-      <c r="F6" s="60"/>
-    </row>
-    <row r="7" ht="14.7" customHeight="1">
-      <c r="A7" t="s" s="58">
-        <v>224</v>
-      </c>
-      <c r="B7" t="s" s="58">
-        <v>225</v>
-      </c>
-      <c r="C7" t="s" s="61">
-        <v>222</v>
-      </c>
-      <c r="D7" t="s" s="66">
-        <v>226</v>
-      </c>
-      <c r="E7" s="64"/>
-      <c r="F7" s="60"/>
-    </row>
-    <row r="8" ht="14.7" customHeight="1">
-      <c r="A8" t="s" s="58">
-        <v>227</v>
-      </c>
-      <c r="B8" s="67"/>
-      <c r="C8" t="s" s="58">
-        <v>222</v>
-      </c>
-      <c r="D8" t="s" s="68">
-        <v>228</v>
-      </c>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-    </row>
-    <row r="9" ht="14.7" customHeight="1">
-      <c r="A9" t="s" s="61">
-        <v>229</v>
-      </c>
-      <c r="B9" t="s" s="62">
-        <v>230</v>
-      </c>
-      <c r="C9" t="s" s="63">
-        <v>222</v>
-      </c>
-      <c r="D9" t="s" s="58">
-        <v>231</v>
-      </c>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-    </row>
-    <row r="10" ht="14.7" customHeight="1">
-      <c r="A10" t="s" s="58">
-        <v>232</v>
-      </c>
-      <c r="B10" s="69"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="64"/>
-    </row>
-    <row r="11" ht="14.7" customHeight="1">
-      <c r="A11" t="s" s="58">
-        <v>233</v>
-      </c>
-      <c r="B11" s="60"/>
-      <c r="C11" t="s" s="58">
-        <v>222</v>
-      </c>
-      <c r="D11" t="s" s="58">
-        <v>234</v>
-      </c>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-    </row>
-    <row r="12" ht="14.7" customHeight="1">
-      <c r="A12" t="s" s="58">
-        <v>235</v>
-      </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-    </row>
-    <row r="13" ht="14.7" customHeight="1">
-      <c r="A13" t="s" s="58">
-        <v>236</v>
-      </c>
-      <c r="B13" t="s" s="58">
-        <v>237</v>
-      </c>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-    </row>
-    <row r="14" ht="14.7" customHeight="1">
-      <c r="A14" s="60"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-    </row>
-    <row r="15" ht="14.7" customHeight="1">
-      <c r="A15" s="60"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
